--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,27 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
-  <si>
-    <t>Monday, May 19, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, May 20, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, May 21, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, May 22, 2025</t>
-  </si>
-  <si>
-    <t>Friday, May 23, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, May 24, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, May 25, 2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+  <si>
+    <t>Monday, May 26, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, May 27, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, May 28, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, May 29, 2025</t>
+  </si>
+  <si>
+    <t>Friday, May 30, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, May 31, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 1, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -86,67 +86,40 @@
     <t>Shift End</t>
   </si>
   <si>
-    <t>Fady Nagy</t>
+    <t>Ahmed Sami</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Faisl &amp; Haram</t>
+  </si>
+  <si>
+    <t>العروبة - اللبيني</t>
+  </si>
+  <si>
+    <t>new cairo</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Salma Samir</t>
   </si>
   <si>
     <t>Tarek Kotb</t>
   </si>
   <si>
-    <t>FTE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Faisl &amp; Haram</t>
-  </si>
-  <si>
-    <t>الطوابق</t>
-  </si>
-  <si>
-    <t>new cairo</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Salma Samir</t>
-  </si>
-  <si>
     <t>October &amp; Zayed</t>
   </si>
   <si>
     <t>هايبر</t>
-  </si>
-  <si>
-    <t>Ahmed Sami</t>
-  </si>
-  <si>
-    <t>العروبة - اللبيني</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>Youssef Shaban</t>
-  </si>
-  <si>
-    <t>Mokattam</t>
-  </si>
-  <si>
-    <t>سلم البارون</t>
-  </si>
-  <si>
-    <t>Caroline Girgis</t>
-  </si>
-  <si>
-    <t>Zaytoun - Masr el gdeda</t>
-  </si>
-  <si>
-    <t>صيدلية التحرير - ميدان روكسي</t>
   </si>
 </sst>
 </file>
@@ -877,72 +850,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,13 +1213,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1818181818182" style="1" customWidth="1"/>
@@ -1298,35 +1249,35 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="22"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" ht="15.25" spans="1:24">
       <c r="A2" s="3" t="s">
@@ -1359,141 +1310,139 @@
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" ht="15.25" spans="1:24">
       <c r="A3" s="5">
-        <v>10264549</v>
+        <v>10264767</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S3" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="T3" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="V3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:24">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>10286678</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>29</v>
@@ -1501,418 +1450,51 @@
       <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L4" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="V4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25"/>
-    <row r="6" ht="15.25" spans="1:24">
-      <c r="A6" s="10">
-        <v>10264767</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L6" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N6" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="O6" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P6" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="R6" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="S6" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T6" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="1:24">
-      <c r="A7" s="10">
-        <v>10264549</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="25.75" spans="1:24">
-      <c r="A8" s="10">
-        <v>10294734</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="11">
-        <v>10</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="O8" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="P8" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="25.75" spans="1:24">
-      <c r="A9" s="10">
-        <v>10303306</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="11">
-        <v>7</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="R9" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="S9" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="T9" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:24">
-      <c r="A10" s="14">
-        <v>10286678</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="O10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="R10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="S10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -29,25 +29,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
-    <t>Monday, May 26, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, May 27, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, May 28, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, May 29, 2025</t>
-  </si>
-  <si>
-    <t>Friday, May 30, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, May 31, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 1, 2025</t>
+    <t>Monday, June 2, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 3, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 4, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 5, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 6, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 7, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 8, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -110,7 +110,7 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Salma Samir</t>
+    <t>Caroline Girgis</t>
   </si>
   <si>
     <t>Tarek Kotb</t>
@@ -850,50 +850,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,7 +1217,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
@@ -1249,35 +1250,35 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="14"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" ht="15.25" spans="1:24">
       <c r="A2" s="3" t="s">
@@ -1310,46 +1311,46 @@
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1379,37 +1380,37 @@
       <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <v>0.5</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="14">
         <v>0.5</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="14">
         <v>0.5</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="U3" s="6" t="s">
@@ -1427,9 +1428,9 @@
     </row>
     <row r="4" ht="15.25" spans="1:24">
       <c r="A4" s="9">
-        <v>10286678</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>10303306</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1451,37 +1452,37 @@
         <v>30</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="U4" s="6" t="s">

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="Q3" sqref="Q3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
@@ -1402,16 +1402,16 @@
         <v>0.833333333333333</v>
       </c>
       <c r="Q3" s="14">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="14">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="S3" s="14">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="T3" s="14">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>26</v>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -29,25 +29,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
-    <t>Monday, June 2, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 3, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 4, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 5, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 6, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 7, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 8, 2025</t>
+    <t>Monday, June 9, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 10, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 11, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 12, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 13, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 14, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 15, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -110,7 +110,7 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Caroline Girgis</t>
+    <t>Salma Samir</t>
   </si>
   <si>
     <t>Tarek Kotb</t>
@@ -856,45 +856,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:R4"/>
+      <selection activeCell="K3" sqref="K3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
@@ -1402,16 +1402,16 @@
         <v>0.833333333333333</v>
       </c>
       <c r="Q3" s="14">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R3" s="14">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S3" s="14">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T3" s="14">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>26</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="4" ht="15.25" spans="1:24">
       <c r="A4" s="9">
-        <v>10303306</v>
+        <v>10286678</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>27</v>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,99 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
-    <t>Monday, June 9, 2025</t>
+    <t>SITE</t>
   </si>
   <si>
-    <t>Tuesday, June 10, 2025</t>
+    <t>Employee</t>
   </si>
   <si>
-    <t>Wednesday, June 11, 2025</t>
+    <t>Monday</t>
   </si>
   <si>
-    <t>Thursday, June 12, 2025</t>
+    <t>Tuesday</t>
   </si>
   <si>
-    <t>Friday, June 13, 2025</t>
+    <t>Wednesday</t>
   </si>
   <si>
-    <t>Saturday, June 14, 2025</t>
+    <t>Thursday</t>
   </si>
   <si>
-    <t>Sunday, June 15, 2025</t>
+    <t>Friday</t>
   </si>
   <si>
-    <t>Employee ID</t>
+    <t>Satruday</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Pick up point</t>
-  </si>
-  <si>
-    <t>Route Num</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Shift Start</t>
-  </si>
-  <si>
-    <t>Shift End</t>
+    <t>Sunday</t>
   </si>
   <si>
     <t>Ahmed Sami</t>
   </si>
   <si>
-    <t>FTE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Faisl &amp; Haram</t>
-  </si>
-  <si>
-    <t>العروبة - اللبيني</t>
-  </si>
-  <si>
-    <t>new cairo</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>Salma Samir</t>
-  </si>
-  <si>
-    <t>Tarek Kotb</t>
-  </si>
-  <si>
-    <t>October &amp; Zayed</t>
-  </si>
-  <si>
-    <t>هايبر</t>
+    <t>Caroline Girgies</t>
   </si>
 </sst>
 </file>
@@ -131,9 +74,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +85,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -150,14 +123,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF073763"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -306,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,7 +281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE9F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF073763"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,25 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -545,14 +505,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -560,12 +546,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -590,11 +617,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -602,6 +674,32 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -720,181 +818,198 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,246 +1329,173 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L4"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.4545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4545454545455" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6.27272727272727" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36363636363636" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3636363636364" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3636363636364" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.8181818181818" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="24" width="11.6363636363636" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="12" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="13" max="24" width="11.6363636363636" style="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" customWidth="1"/>
     <col min="26" max="26" width="11.0909090909091" style="1" customWidth="1"/>
     <col min="27" max="30" width="5.18181818181818" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:25">
+    <row r="1" ht="16" customHeight="1" spans="1:17">
       <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="C1" s="4">
+        <v>45824</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4">
+        <v>45825</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4">
+        <v>45826</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
+        <v>45827</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4">
+        <v>45828</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4">
+        <v>45829</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4">
+        <v>45830</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="15"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="15"/>
     </row>
-    <row r="2" ht="15.25" spans="1:24">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" ht="15.25" spans="1:16">
+      <c r="A3" s="9">
+        <v>10294734</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="N3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="12">
+        <v>10264549</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="15.25" spans="1:24">
-      <c r="A3" s="5">
-        <v>10264767</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="C4" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="R3" s="14">
+      <c r="D4" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="S3" s="14">
+      <c r="E4" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="T3" s="14">
+      <c r="F4" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="15.25" spans="1:24">
-      <c r="A4" s="9">
-        <v>10286678</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="10" t="s">
-        <v>25</v>
+      <c r="G4" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.666666666666667</v>
       </c>
       <c r="K4" s="14">
         <v>0.333333333333333</v>
@@ -1461,52 +1503,36 @@
       <c r="L4" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M4" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P4" s="14">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="R4" s="14">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="S4" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T4" s="14">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>26</v>
+      <c r="M4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>SITE</t>
   </si>
@@ -62,21 +62,37 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Caroline Girgies</t>
+    <t>Caroline Girgis</t>
+  </si>
+  <si>
+    <t>new cairo</t>
+  </si>
+  <si>
+    <t>Fady Nagy</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Youssef Shaban</t>
+  </si>
+  <si>
+    <t>Salma Samir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +144,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -496,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -643,6 +665,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,137 +870,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,9 +1023,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -992,22 +1041,37 @@
     <xf numFmtId="178" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,13 +1393,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.0909090909091" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3636363636364" style="1" customWidth="1"/>
@@ -1380,7 +1444,7 @@
         <v>45830</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
@@ -1390,129 +1454,395 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="15"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" ht="15.25" spans="1:16">
-      <c r="A3" s="9">
-        <v>10294734</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8">
+        <v>10264767</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0.5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>0.5</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0.5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.5</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="M3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
+        <v>10303306</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25"/>
+    <row r="6" ht="15.25" spans="1:17">
+      <c r="A6" s="14">
+        <v>10264767</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="1:17">
+      <c r="A7" s="14">
         <v>10264549</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="1:17">
+      <c r="A8" s="14">
+        <v>10294734</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="1:17">
+      <c r="A9" s="14">
+        <v>10303306</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="17">
         <v>0.333333333333333</v>
       </c>
-      <c r="D4" s="14">
+      <c r="E9" s="17">
         <v>0.666666666666667</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F9" s="17">
         <v>0.333333333333333</v>
       </c>
-      <c r="F4" s="14">
+      <c r="G9" s="17">
         <v>0.666666666666667</v>
       </c>
-      <c r="G4" s="14">
+      <c r="H9" s="17">
         <v>0.333333333333333</v>
       </c>
-      <c r="H4" s="14">
+      <c r="I9" s="17">
         <v>0.666666666666667</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J9" s="17">
         <v>0.333333333333333</v>
       </c>
-      <c r="J4" s="14">
+      <c r="K9" s="17">
         <v>0.666666666666667</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L9" s="17">
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="14">
+      <c r="M9" s="17">
         <v>0.666666666666667</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="19" t="s">
+      <c r="N9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:17">
+      <c r="A10" s="18">
+        <v>10286678</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>SITE</t>
   </si>
@@ -64,35 +64,19 @@
   <si>
     <t>Caroline Girgis</t>
   </si>
-  <si>
-    <t>new cairo</t>
-  </si>
-  <si>
-    <t>Fady Nagy</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>Youssef Shaban</t>
-  </si>
-  <si>
-    <t>Salma Samir</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +128,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -518,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -665,36 +643,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,137 +818,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,37 +989,22 @@
     <xf numFmtId="178" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,13 +1326,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="A7" sqref="$A6:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="13.0909090909091" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3636363636364" style="1" customWidth="1"/>
@@ -1444,7 +1377,7 @@
         <v>45830</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="24"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
@@ -1478,7 +1411,7 @@
       <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" ht="15.25" spans="1:16">
       <c r="A3" s="8">
@@ -1517,16 +1450,16 @@
       <c r="L3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1567,282 +1500,16 @@
       <c r="L4" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25"/>
-    <row r="6" ht="15.25" spans="1:17">
-      <c r="A6" s="14">
-        <v>10264767</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="1:17">
-      <c r="A7" s="14">
-        <v>10264549</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="1:17">
-      <c r="A8" s="14">
-        <v>10294734</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="1:17">
-      <c r="A9" s="14">
-        <v>10303306</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:17">
-      <c r="A10" s="18">
-        <v>10286678</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="15" t="s">
+      <c r="P4" s="18" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,33 +27,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
-    <t>SITE</t>
+    <t>Monday, June 23, 2025</t>
   </si>
   <si>
-    <t>Employee</t>
+    <t>Tuesday, June 24, 2025</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Wednesday, June 25, 2025</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>Thursday, June 26, 2025</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Friday, June 27, 2025</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Saturday, June 28, 2025</t>
   </si>
   <si>
-    <t>Friday</t>
+    <t>Sunday, June 29, 2025</t>
   </si>
   <si>
-    <t>Satruday</t>
+    <t>Employee ID</t>
   </si>
   <si>
-    <t>Sunday</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Shift Start</t>
+  </si>
+  <si>
+    <t>Shift End</t>
   </si>
   <si>
     <t>Ahmed Sami</t>
@@ -74,9 +80,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,36 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -122,9 +98,16 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -281,19 +264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE9F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF073763"/>
+        <fgColor rgb="FFEA4335"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,12 +294,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,24 +479,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -524,21 +494,8 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
+      <top style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -546,49 +503,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <left style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -614,92 +530,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -818,195 +648,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,7 +1133,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A6:$XFD7"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
@@ -1344,81 +1148,95 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:17">
+    <row r="1" ht="15.25" spans="1:17">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
-        <v>45824</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4">
-        <v>45825</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4">
-        <v>45826</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
-        <v>45827</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4">
-        <v>45828</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4">
-        <v>45829</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4">
-        <v>45830</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="19"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="11"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+    <row r="2" ht="15.25" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" ht="15.25" spans="1:16">
       <c r="A3" s="8">
         <v>10264767</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10">
         <v>0.5</v>
@@ -1450,71 +1268,71 @@
       <c r="L3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>10</v>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="11">
+    <row r="4" ht="15.25" spans="1:16">
+      <c r="A4" s="8">
         <v>10303306</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.333333333333333</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.333333333333333</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>0.333333333333333</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>0.333333333333333</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>10</v>
+      <c r="M4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="7">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1522,14 +1340,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,39 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
-  <si>
-    <t>Monday, June 23, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 24, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 25, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 26, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 27, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 28, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 29, 2025</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Shift Start</t>
-  </si>
-  <si>
-    <t>Shift End</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Satruday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
   <si>
     <t>Ahmed Sami</t>
@@ -68,7 +62,58 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>Caroline Girgies</t>
+  </si>
+  <si>
+    <t>Salma Samir</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Faisl &amp; Haram</t>
+  </si>
+  <si>
+    <t>العروبة - اللبيني</t>
+  </si>
+  <si>
+    <t>new cairo</t>
+  </si>
+  <si>
+    <t>Fady Nagy</t>
+  </si>
+  <si>
+    <t>Tarek Kotb</t>
+  </si>
+  <si>
+    <t>الطوابق</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Youssef Shaban</t>
+  </si>
+  <si>
+    <t>Mokattam</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
     <t>Caroline Girgis</t>
+  </si>
+  <si>
+    <t>Zaytoun - Masr el gdeda</t>
+  </si>
+  <si>
+    <t>صيدلية التحرير - ميدان روكسي</t>
   </si>
 </sst>
 </file>
@@ -80,15 +125,64 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -97,20 +191,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -255,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,25 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
+        <fgColor rgb="FFDAE9F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF073763"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,6 +368,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -495,8 +581,34 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -522,7 +634,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -648,169 +760,193 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,209 +1266,463 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="C3" sqref="C3:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.0909090909091" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="12" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="13" max="24" width="11.6363636363636" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.0909090909091" style="1" customWidth="1"/>
-    <col min="27" max="30" width="5.18181818181818" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.0909090909091" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.3636363636364" style="4" customWidth="1"/>
+    <col min="3" max="12" width="12.9090909090909" style="4" customWidth="1"/>
+    <col min="13" max="24" width="11.6363636363636" style="4" customWidth="1"/>
+    <col min="25" max="25" width="9" style="4" customWidth="1"/>
+    <col min="26" max="26" width="11.0909090909091" style="4" customWidth="1"/>
+    <col min="27" max="30" width="5.18181818181818" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="1:17">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="6">
+        <v>45838</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6">
+        <v>45839</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6">
+        <v>45840</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6">
+        <v>45841</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6">
+        <v>45842</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6">
+        <v>45843</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6">
+        <v>45844</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.25" spans="1:16">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="11"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="8"/>
     </row>
-    <row r="2" ht="15.25" spans="1:16">
-      <c r="A2" s="4" t="s">
+    <row r="3" s="3" customFormat="1" ht="13.75" spans="1:16">
+      <c r="A3" s="9">
+        <v>10264767</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="13.75" spans="1:16">
+      <c r="A4" s="9">
+        <v>10303306</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="13.75" spans="1:16">
+      <c r="A5" s="9">
+        <v>10286678</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" spans="1:25">
+      <c r="A10" s="12">
+        <v>10264767</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="12">
+        <v>10264549</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="12">
+        <v>10294734</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="13">
+        <v>10</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="12">
+        <v>10303306</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="13">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
     </row>
-    <row r="3" ht="15.25" spans="1:16">
-      <c r="A3" s="8">
-        <v>10264767</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M3" s="9" t="s">
+    <row r="14" ht="15.25" spans="1:25">
+      <c r="A14" s="15">
+        <v>10286678</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="15.25" spans="1:16">
-      <c r="A4" s="8">
-        <v>10303306</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="16">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1340,6 +1730,15 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+  <si>
+    <t>SITE</t>
+  </si>
   <si>
     <t>Employee</t>
-  </si>
-  <si>
-    <t>SITE</t>
   </si>
   <si>
     <t>Monday</t>
@@ -56,78 +56,43 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Ahmed Sami</t>
+    <t>Fady Nagy</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>Caroline Girgies</t>
-  </si>
-  <si>
     <t>Salma Samir</t>
   </si>
   <si>
-    <t>FTE</t>
+    <t>Ahmed Sami</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>Smart Village</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Faisl &amp; Haram</t>
-  </si>
-  <si>
-    <t>العروبة - اللبيني</t>
-  </si>
-  <si>
-    <t>new cairo</t>
-  </si>
-  <si>
-    <t>Fady Nagy</t>
-  </si>
-  <si>
-    <t>Tarek Kotb</t>
-  </si>
-  <si>
-    <t>الطوابق</t>
-  </si>
-  <si>
-    <t>SV</t>
+    <t>New Cairo</t>
   </si>
   <si>
     <t>Youssef Shaban</t>
   </si>
   <si>
-    <t>Mokattam</t>
-  </si>
-  <si>
-    <t>سلم البارون</t>
-  </si>
-  <si>
     <t>Caroline Girgis</t>
-  </si>
-  <si>
-    <t>Zaytoun - Masr el gdeda</t>
-  </si>
-  <si>
-    <t>صيدلية التحرير - ميدان روكسي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,22 +106,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -167,20 +129,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF073763"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -191,6 +155,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFBFE0F6"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -368,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
+        <fgColor rgb="FF0A53A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,160 +730,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,27 +891,27 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,463 +1231,466 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D5"/>
+      <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.0909090909091" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.3636363636364" style="4" customWidth="1"/>
-    <col min="3" max="12" width="12.9090909090909" style="4" customWidth="1"/>
-    <col min="13" max="24" width="11.6363636363636" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9" style="4" customWidth="1"/>
-    <col min="26" max="26" width="11.0909090909091" style="4" customWidth="1"/>
-    <col min="27" max="30" width="5.18181818181818" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="13.0909090909091" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.3636363636364" style="2" customWidth="1"/>
+    <col min="3" max="12" width="12.9090909090909" style="2" customWidth="1"/>
+    <col min="13" max="24" width="11.6363636363636" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.0909090909091" style="2" customWidth="1"/>
+    <col min="27" max="30" width="5.18181818181818" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5">
+        <v>45845</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
+        <v>45846</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5">
+        <v>45847</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5">
+        <v>45848</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5">
+        <v>45849</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5">
+        <v>45850</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5">
+        <v>45851</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="18"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="16.25" spans="1:16">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
-        <v>45838</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
-        <v>45839</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6">
-        <v>45840</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6">
-        <v>45841</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6">
-        <v>45842</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6">
-        <v>45843</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6">
-        <v>45844</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="19"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.25" spans="1:16">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="8"/>
+    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A3" s="8">
+        <v>10264549</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="13.75" spans="1:16">
-      <c r="A3" s="9">
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A4" s="8">
+        <v>10286678</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1" ht="15.25"/>
+    <row r="11" ht="15.25" spans="1:17">
+      <c r="A11" s="11">
         <v>10264767</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:17">
+      <c r="A12" s="11">
+        <v>10264549</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13">
         <v>0.5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F12" s="13">
         <v>0.5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H12" s="13">
         <v>0.5</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J12" s="13">
         <v>0.5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L12" s="13">
         <v>0.5</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M12" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="N12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="13.75" spans="1:16">
-      <c r="A4" s="9">
+    <row r="13" ht="15.25" spans="1:17">
+      <c r="A13" s="11">
+        <v>10294734</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:17">
+      <c r="A14" s="11">
         <v>10303306</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:17">
+      <c r="A15" s="15">
+        <v>10286678</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="13.75" spans="1:16">
-      <c r="A5" s="9">
-        <v>10286678</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="D5" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="E15" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F15" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="G15" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H15" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="H5" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="I15" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J15" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="J5" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="K15" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="L15" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="L5" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25"/>
-    <row r="10" spans="1:25">
-      <c r="A10" s="12">
-        <v>10264767</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="12">
-        <v>10264549</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="12">
-        <v>10294734</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="13">
-        <v>10</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="12">
-        <v>10303306</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="13">
-        <v>7</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-    </row>
-    <row r="14" ht="15.25" spans="1:25">
-      <c r="A14" s="15">
-        <v>10286678</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
+      <c r="M15" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1737,7 +1705,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
-    <t>SITE</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>SITE</t>
   </si>
   <si>
     <t>Monday</t>
@@ -59,19 +62,25 @@
     <t>Fady Nagy</t>
   </si>
   <si>
+    <t>Smart Village</t>
+  </si>
+  <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>CarolineGirgies</t>
+  </si>
+  <si>
+    <t>Ahmed Sami</t>
+  </si>
+  <si>
+    <t>New cairo</t>
   </si>
   <si>
     <t>Salma Samir</t>
   </si>
   <si>
-    <t>Ahmed Sami</t>
-  </si>
-  <si>
-    <t>Smart Village</t>
-  </si>
-  <si>
-    <t>New Cairo</t>
+    <t>YoussefShaban</t>
   </si>
   <si>
     <t>Youssef Shaban</t>
@@ -84,15 +93,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +114,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -122,13 +139,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -136,28 +146,16 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFBFE0F6"/>
-      <name val="Arial"/>
+      <color rgb="FF073763"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -305,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +336,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0A53A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -535,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -546,6 +538,30 @@
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -586,6 +602,30 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -615,6 +655,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -730,188 +811,210 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,481 +1334,606 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.0909090909091" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.3636363636364" style="2" customWidth="1"/>
-    <col min="3" max="12" width="12.9090909090909" style="2" customWidth="1"/>
-    <col min="13" max="24" width="11.6363636363636" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.0909090909091" style="2" customWidth="1"/>
-    <col min="27" max="30" width="5.18181818181818" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.0909090909091" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.3636363636364" style="4" customWidth="1"/>
+    <col min="3" max="12" width="12.9090909090909" style="4" customWidth="1"/>
+    <col min="13" max="24" width="11.6363636363636" style="4" customWidth="1"/>
+    <col min="25" max="25" width="9" style="4" customWidth="1"/>
+    <col min="26" max="26" width="11.0909090909091" style="4" customWidth="1"/>
+    <col min="27" max="30" width="5.18181818181818" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5">
-        <v>45845</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5">
-        <v>45846</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5">
-        <v>45847</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5">
-        <v>45848</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5">
-        <v>45849</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5">
-        <v>45850</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5">
-        <v>45851</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="18"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8">
+        <v>45852</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8">
+        <v>45853</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8">
+        <v>45854</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8">
+        <v>45855</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8">
+        <v>45856</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8">
+        <v>45857</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8">
+        <v>45858</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="24"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.25" spans="1:16">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:17">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:17">
+      <c r="A3" s="14">
+        <v>10264549</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:17">
+      <c r="A4" s="14">
+        <v>10303306</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="16" customHeight="1" spans="1:17">
+      <c r="A6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D6" s="8">
+        <v>45852</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>45853</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>45854</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>45855</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <v>45856</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
+        <v>45857</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
+        <v>45858</v>
+      </c>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:17">
+      <c r="A7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="M7" s="13"/>
+      <c r="N7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="13"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A3" s="8">
+    <row r="8" s="3" customFormat="1" spans="1:17">
+      <c r="A8" s="14">
+        <v>10264767</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:17">
+      <c r="A9" s="14">
+        <v>10286678</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:17">
+      <c r="A10" s="14">
+        <v>10294734</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1"/>
+    <row r="12" s="3" customFormat="1" ht="15.25"/>
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A13" s="22">
+        <v>10264767</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A14" s="22">
         <v>10264549</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="B14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A4" s="8">
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A15" s="22">
+        <v>10294734</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A16" s="22">
+        <v>10303306</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A17" s="22">
         <v>10286678</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1" ht="15.25"/>
-    <row r="11" ht="15.25" spans="1:17">
-      <c r="A11" s="11">
-        <v>10264767</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="1:17">
-      <c r="A12" s="11">
-        <v>10264549</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:17">
-      <c r="A13" s="11">
-        <v>10294734</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K13" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:17">
-      <c r="A14" s="11">
-        <v>10303306</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="B17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="1:17">
-      <c r="A15" s="15">
-        <v>10286678</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="34">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -941,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,9 +979,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -999,9 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1337,15 +1331,16 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.0909090909091" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.3636363636364" style="4" customWidth="1"/>
-    <col min="3" max="12" width="12.9090909090909" style="4" customWidth="1"/>
-    <col min="13" max="24" width="11.6363636363636" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9090909090909" style="4" customWidth="1"/>
+    <col min="4" max="13" width="12" style="4" customWidth="1"/>
+    <col min="14" max="24" width="11.6363636363636" style="4" customWidth="1"/>
     <col min="25" max="25" width="9" style="4" customWidth="1"/>
     <col min="26" max="26" width="11.0909090909091" style="4" customWidth="1"/>
     <col min="27" max="30" width="5.18181818181818" style="4" customWidth="1"/>
@@ -1390,7 +1385,7 @@
         <v>45858</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="R1" s="24"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:17">
       <c r="A2" s="9"/>
@@ -1399,165 +1394,165 @@
       <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="13"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="12"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
-      <c r="A3" s="14">
+    <row r="3" s="2" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A3" s="13">
         <v>10264549</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>0.5</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>0.5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>0.5</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>0.5</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>0.5</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:17">
-      <c r="A4" s="14">
+    <row r="4" s="2" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A4" s="13">
         <v>10303306</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>0.0416666666666667</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.0416666666666667</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>0.0416666666666667</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>0.0416666666666667</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:17">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+    <row r="5" s="3" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="16" customHeight="1" spans="1:17">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="8">
@@ -1590,204 +1585,204 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:17">
-      <c r="A7" s="21"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="13"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="12"/>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:17">
-      <c r="A8" s="14">
+    <row r="8" s="3" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A8" s="13">
         <v>10264767</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0.5</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>0.5</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>0.5</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>0.5</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>0.5</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:17">
-      <c r="A9" s="14">
+    <row r="9" s="3" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A9" s="13">
         <v>10286678</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A10" s="13">
+        <v>10294734</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L10" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M10" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:17">
-      <c r="A10" s="14">
-        <v>10294734</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1"/>
     <row r="12" s="3" customFormat="1" ht="15.25"/>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>10264767</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C13"/>
@@ -1807,10 +1802,10 @@
       <c r="Q13"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A14" s="22">
+      <c r="A14" s="20">
         <v>10264549</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C14"/>
@@ -1830,10 +1825,10 @@
       <c r="Q14"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>10294734</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C15"/>
@@ -1853,10 +1848,10 @@
       <c r="Q15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>10303306</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C16"/>
@@ -1876,10 +1871,10 @@
       <c r="Q16"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A17" s="22">
+      <c r="A17" s="20">
         <v>10286678</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C17"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,15 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+  <si>
+    <t>Location : New Cairo</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>SITE</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Monday</t>
@@ -53,34 +53,31 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Satruday</t>
+    <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Fady Nagy</t>
+    <t>Ahmed Sami</t>
   </si>
   <si>
-    <t>Smart Village</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>CarolineGirgies</t>
+    <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Ahmed Sami</t>
-  </si>
-  <si>
-    <t>New cairo</t>
+    <t>Fady Nagy</t>
   </si>
   <si>
     <t>Salma Samir</t>
   </si>
   <si>
-    <t>YoussefShaban</t>
+    <t>Youssef Eldesokky</t>
   </si>
   <si>
     <t>Youssef Shaban</t>
@@ -100,7 +97,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +116,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -134,13 +124,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -152,13 +135,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -312,7 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,19 +300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF073763"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -537,7 +513,55 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -545,31 +569,201 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,6 +773,17 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -594,104 +799,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,203 +923,233 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1328,607 +1470,479 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD10"/>
+      <selection activeCell="A4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.0909090909091" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.3636363636364" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.9090909090909" style="4" customWidth="1"/>
-    <col min="4" max="13" width="12" style="4" customWidth="1"/>
-    <col min="14" max="24" width="11.6363636363636" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9" style="4" customWidth="1"/>
-    <col min="26" max="26" width="11.0909090909091" style="4" customWidth="1"/>
-    <col min="27" max="30" width="5.18181818181818" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9.54545454545454" style="2"/>
+    <col min="2" max="2" width="17.7272727272727" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.9090909090909" style="2" customWidth="1"/>
+    <col min="5" max="18" width="12" style="2" customWidth="1"/>
+    <col min="19" max="29" width="11.6363636363636" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9" style="2" customWidth="1"/>
+    <col min="31" max="31" width="11.0909090909091" style="2" customWidth="1"/>
+    <col min="32" max="35" width="5.18181818181818" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="17.75" customHeight="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="16" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8">
-        <v>45852</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8">
-        <v>45853</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8">
-        <v>45854</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8">
-        <v>45855</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8">
-        <v>45856</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8">
-        <v>45857</v>
-      </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8">
-        <v>45858</v>
-      </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="22"/>
+      <c r="C2" s="6">
+        <v>45859</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>45860</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6">
+        <v>45861</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6">
+        <v>45862</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6">
+        <v>45863</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="25">
+        <v>45864</v>
+      </c>
+      <c r="N2" s="26">
+        <v>45865</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:17">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
+      <c r="N3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="12"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A3" s="13">
+    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:14">
+      <c r="A4" s="12">
+        <v>10264767</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L4" s="30">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:14">
+      <c r="A5" s="16">
+        <v>10303306</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.75" customHeight="1" spans="1:14">
+      <c r="A6" s="16">
         <v>10264549</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16" customHeight="1" spans="1:14">
+      <c r="A7" s="16">
+        <v>10286678</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:14">
+      <c r="A8" s="16">
+        <v>10294734</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1" ht="15.25"/>
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:21">
+      <c r="A12" s="23">
+        <v>10264767</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A4" s="13">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:21">
+      <c r="A13" s="23">
+        <v>10264549</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:21">
+      <c r="A14" s="23">
+        <v>10294734</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:21">
+      <c r="A15" s="23">
         <v>10303306</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="16" customHeight="1" spans="1:17">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>45852</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>45853</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <v>45854</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>45855</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
-        <v>45856</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8">
-        <v>45857</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
-        <v>45858</v>
-      </c>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:17">
-      <c r="A7" s="19"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A8" s="13">
-        <v>10264767</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A9" s="13">
-        <v>10286678</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A10" s="13">
-        <v>10294734</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1" ht="15.25"/>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A13" s="20">
-        <v>10264767</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A14" s="20">
-        <v>10264549</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A15" s="20">
-        <v>10294734</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A16" s="20">
-        <v>10303306</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A17" s="20">
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:21">
+      <c r="A16" s="23">
         <v>10286678</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+      <c r="B16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C6:C7"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -80,24 +80,31 @@
     <t>Youssef Eldesokky</t>
   </si>
   <si>
+    <t>Tarek Ibrahim</t>
+  </si>
+  <si>
     <t>Youssef Shaban</t>
   </si>
   <si>
     <t>Caroline Girgis</t>
+  </si>
+  <si>
+    <t>Date/Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +142,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -279,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +325,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA6C9EC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -733,16 +752,76 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,21 +860,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -923,55 +987,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,74 +1047,77 @@
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,22 +1185,67 @@
     <xf numFmtId="178" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,10 +1254,10 @@
     <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1470,10 +1579,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1489,7 +1598,7 @@
     <col min="36" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.75" customHeight="1" spans="1:14">
+    <row r="1" ht="18.5" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1505,9 +1614,9 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="16" spans="1:14">
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1515,30 +1624,30 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6">
-        <v>45861</v>
+        <v>45868</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="6">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="6">
-        <v>45863</v>
+        <v>45870</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="25">
-        <v>45864</v>
-      </c>
-      <c r="N2" s="26">
-        <v>45865</v>
+      <c r="M2" s="40">
+        <v>45871</v>
+      </c>
+      <c r="N2" s="41">
+        <v>45872</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:14">
@@ -1564,14 +1673,14 @@
         <v>7</v>
       </c>
       <c r="L3" s="11"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:14">
+    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:14">
       <c r="A4" s="12">
         <v>10264767</v>
       </c>
@@ -1596,26 +1705,26 @@
       <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="44">
         <v>0.5</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="45">
         <v>0.833333333333333</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="44">
         <v>0.583333333333333</v>
       </c>
-      <c r="L4" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="M4" s="31" t="s">
+      <c r="L4" s="45">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:14">
+    <row r="5" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:14">
       <c r="A5" s="16">
         <v>10303306</v>
       </c>
@@ -1652,14 +1761,14 @@
       <c r="L5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17.75" customHeight="1" spans="1:14">
+    <row r="6" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:14">
       <c r="A6" s="16">
         <v>10264549</v>
       </c>
@@ -1696,14 +1805,14 @@
       <c r="L6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16" customHeight="1" spans="1:14">
+    <row r="7" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:14">
       <c r="A7" s="16">
         <v>10286678</v>
       </c>
@@ -1740,14 +1849,14 @@
       <c r="L7" s="20">
         <v>0.666666666666667</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:14">
+    <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:14">
       <c r="A8" s="16">
         <v>10294734</v>
       </c>
@@ -1784,27 +1893,90 @@
       <c r="L8" s="22">
         <v>0.833333333333333</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1" ht="15.25"/>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A12" s="23">
-        <v>10264767</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:14">
+      <c r="A9" s="23">
+        <v>10227727</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="8:21">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="8:21">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="8:21">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1820,18 +1992,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A13" s="23">
-        <v>10264549</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+    <row r="13" s="1" customFormat="1" spans="8:21">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1847,89 +2008,182 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A14" s="23">
+    <row r="15" ht="15.25"/>
+    <row r="16" ht="15.25" spans="1:2">
+      <c r="A16" s="26">
+        <v>10264767</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:2">
+      <c r="A17" s="26">
+        <v>10264549</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:2">
+      <c r="A18" s="26">
         <v>10294734</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A15" s="23">
+      <c r="B18" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:4">
+      <c r="A19" s="26">
         <v>10303306</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A16" s="23">
+      <c r="B19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" ht="15.25" spans="1:2">
+      <c r="A20" s="26">
         <v>10286678</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+    </row>
+    <row r="21" ht="15.25"/>
+    <row r="22" ht="15.25" spans="1:7">
+      <c r="A22" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28">
+        <v>45866</v>
+      </c>
+      <c r="D22" s="28">
+        <v>45867</v>
+      </c>
+      <c r="E22" s="28">
+        <v>45868</v>
+      </c>
+      <c r="F22" s="28">
+        <v>45869</v>
+      </c>
+      <c r="G22" s="28">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:7">
+      <c r="A23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" ht="15.25" spans="1:7">
+      <c r="A25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:7">
+      <c r="A26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" ht="15.25" spans="1:7">
+      <c r="A28" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="38">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="38">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:7">
+      <c r="A29" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="35">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="21">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -1941,8 +2195,16 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,17 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -74,31 +74,13 @@
     <t>Salma Samir</t>
   </si>
   <si>
-    <t>YoussefShaban</t>
+    <t>Youssef Shaban</t>
   </si>
   <si>
     <t>Fady Nagy</t>
   </si>
   <si>
-    <t>Youssef Shaban</t>
-  </si>
-  <si>
     <t>Caroline Girgis</t>
-  </si>
-  <si>
-    <t>Location : New Cairo</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date/Day</t>
-  </si>
-  <si>
-    <t>Caroline Girgies</t>
-  </si>
-  <si>
-    <t>Youssef Eldesokky</t>
   </si>
 </sst>
 </file>
@@ -112,7 +94,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +149,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -318,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,12 +332,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -548,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -557,16 +526,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
-      </bottom>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -585,8 +578,36 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -624,51 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -784,52 +760,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,161 +823,125 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1319,68 +1262,69 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.54545454545454" style="3"/>
-    <col min="2" max="2" width="17.7272727272727" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.9090909090909" style="3" customWidth="1"/>
-    <col min="5" max="18" width="12" style="3" customWidth="1"/>
-    <col min="19" max="29" width="11.6363636363636" style="3" customWidth="1"/>
-    <col min="30" max="30" width="9" style="3" customWidth="1"/>
-    <col min="31" max="31" width="11.0909090909091" style="3" customWidth="1"/>
-    <col min="32" max="35" width="5.18181818181818" style="3" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.54545454545454" style="1"/>
+    <col min="2" max="2" width="17.7272727272727" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="18" width="12" style="1" customWidth="1"/>
+    <col min="19" max="29" width="11.6363636363636" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="32" max="35" width="5.18181818181818" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
-        <v>45873</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7">
-        <v>45874</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7">
-        <v>45875</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7">
-        <v>45876</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7">
-        <v>45877</v>
-      </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7">
+      <c r="D1" s="6">
         <v>45879</v>
       </c>
-      <c r="Q1" s="7"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6">
+        <v>45880</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6">
+        <v>45881</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6">
+        <v>45882</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6">
+        <v>45883</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6">
+        <v>45884</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6">
+        <v>45885</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="17"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:17">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6"/>
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1354,7 @@
       </c>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:17">
+    <row r="3" s="2" customFormat="1" ht="15.25" spans="1:21">
       <c r="A3" s="11">
         <v>10264767</v>
       </c>
@@ -1462,8 +1406,12 @@
       <c r="Q3" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:17">
+    <row r="4" s="2" customFormat="1" ht="15.25" spans="1:21">
       <c r="A4" s="11">
         <v>10286678</v>
       </c>
@@ -1480,28 +1428,28 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F4" s="15">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="15">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H4" s="15">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="15">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="J4" s="15">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="15">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="L4" s="15">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="15">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>13</v>
@@ -1515,8 +1463,12 @@
       <c r="Q4" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:17">
+    <row r="5" s="2" customFormat="1" ht="15.25" spans="1:21">
       <c r="A5" s="11">
         <v>10294734</v>
       </c>
@@ -1533,28 +1485,28 @@
         <v>0.833333333333333</v>
       </c>
       <c r="F5" s="15">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G5" s="15">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H5" s="15">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I5" s="15">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J5" s="15">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K5" s="15">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L5" s="15">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M5" s="15">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>13</v>
@@ -1568,250 +1520,70 @@
       <c r="Q5" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.75" customHeight="1"/>
-    <row r="7" s="1" customFormat="1" ht="16" customHeight="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="2" customFormat="1" spans="8:21">
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+    <row r="6" s="2" customFormat="1" spans="8:21">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="8:21">
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+    <row r="8" ht="15.25"/>
+    <row r="9" ht="15.25" spans="1:2">
+      <c r="A9" s="16">
+        <v>10264767</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="8:21">
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+    <row r="10" ht="15.25" spans="1:2">
+      <c r="A10" s="16">
+        <v>10264549</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="8:21">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+    <row r="11" ht="15.25" spans="1:2">
+      <c r="A11" s="16">
+        <v>10294734</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" ht="15.25"/>
-    <row r="15" ht="15.25" spans="1:2">
-      <c r="A15" s="16">
-        <v>10264767</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>10</v>
+    <row r="12" ht="15.25" spans="1:2">
+      <c r="A12" s="16">
+        <v>10303306</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="16" ht="15.25" spans="1:2">
-      <c r="A16" s="16">
-        <v>10264549</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="16">
-        <v>10294734</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:4">
-      <c r="A18" s="16">
-        <v>10303306</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="16">
+    <row r="13" ht="15.25" spans="1:2">
+      <c r="A13" s="16">
         <v>10286678</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25"/>
-    <row r="21" ht="15.25" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18">
-        <v>45866</v>
-      </c>
-      <c r="D21" s="18">
-        <v>45867</v>
-      </c>
-      <c r="E21" s="18">
-        <v>45868</v>
-      </c>
-      <c r="F21" s="18">
-        <v>45869</v>
-      </c>
-      <c r="G21" s="18">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:7">
-      <c r="A22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:7">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" ht="15.25" spans="1:7">
-      <c r="A24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0.583333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:7">
-      <c r="A25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:7">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" ht="15.25" spans="1:7">
-      <c r="A27" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E27" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F27" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G27" s="28">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:7">
-      <c r="A28" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="17">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -1826,16 +1598,8 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -1292,31 +1292,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="6">
-        <v>45879</v>
+        <v>45880</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6">
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="17"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Employee</t>
   </si>
@@ -35,9 +38,6 @@
     <t>SITE</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -71,13 +71,19 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>YoussefShaban</t>
+  </si>
+  <si>
     <t>Salma Samir</t>
   </si>
   <si>
+    <t>new cairo</t>
+  </si>
+  <si>
+    <t>Fady Nagy</t>
+  </si>
+  <si>
     <t>Youssef Shaban</t>
-  </si>
-  <si>
-    <t>Fady Nagy</t>
   </si>
   <si>
     <t>Caroline Girgis</t>
@@ -94,16 +100,8 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="26">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -517,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -526,9 +524,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -539,27 +544,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,33 +572,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -760,188 +728,191 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1262,7 +1233,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B5"/>
@@ -1281,305 +1252,278 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15.25" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
-        <v>45880</v>
+      <c r="D1" s="5">
+        <v>45887</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6">
-        <v>45881</v>
+        <v>45888</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6">
-        <v>45882</v>
+        <v>45889</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6">
-        <v>45884</v>
+        <v>45891</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6">
-        <v>45885</v>
+        <v>45892</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6">
-        <v>45886</v>
+        <v>45893</v>
       </c>
       <c r="Q1" s="6"/>
-      <c r="R1" s="17"/>
+      <c r="R1" s="18"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:17">
+    <row r="2" ht="15.25" spans="1:18">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="18"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A3" s="11">
+    <row r="3" spans="1:17">
+      <c r="A3" s="12">
         <v>10264767</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="16">
         <v>0.5</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="16">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="12">
+        <v>10294734</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="12">
+        <v>10286678</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="16">
         <v>0.5</v>
       </c>
-      <c r="M3" s="15">
+      <c r="E5" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="F5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A4" s="11">
-        <v>10286678</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+    <row r="7" ht="15.25"/>
+    <row r="8" ht="15.25" spans="1:2">
+      <c r="A8" s="17">
+        <v>10264767</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15.25" spans="1:21">
-      <c r="A5" s="11">
-        <v>10294734</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="8:21">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="8" ht="15.25"/>
     <row r="9" ht="15.25" spans="1:2">
-      <c r="A9" s="16">
-        <v>10264767</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>10</v>
+      <c r="A9" s="17">
+        <v>10264549</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:2">
-      <c r="A10" s="16">
-        <v>10264549</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
+      <c r="A10" s="17">
+        <v>10294734</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:2">
-      <c r="A11" s="16">
-        <v>10294734</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>15</v>
+      <c r="A11" s="17">
+        <v>10303306</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:2">
-      <c r="A12" s="16">
-        <v>10303306</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:2">
-      <c r="A13" s="16">
+      <c r="A12" s="17">
         <v>10286678</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
+      <c r="B12" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,90 @@
   </si>
   <si>
     <t>new cairo</t>
+  </si>
+  <si>
+    <t>Location: New Cairo</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date/Day</t>
+  </si>
+  <si>
+    <r>
+      <t>Ahmed Sami  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10264767</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Caroline Girges  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10303306</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fady Nagy  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10264549</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Salma Samir  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10286678</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Youssef Eldesokky   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10294734</t>
+    </r>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -100,7 +184,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +220,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -290,8 +381,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +428,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -588,6 +692,21 @@
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -728,55 +847,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,74 +907,77 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,7 +1027,40 @@
     <xf numFmtId="178" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1233,10 +1385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1252,7 +1404,7 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="1:18">
+    <row r="1" ht="16" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1263,23 +1415,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="5">
-        <v>45887</v>
+        <v>45894</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6">
-        <v>45888</v>
+        <v>45895</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6">
-        <v>45889</v>
+        <v>45896</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6">
-        <v>45890</v>
+        <v>45897</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6">
@@ -1290,9 +1442,9 @@
         <v>45893</v>
       </c>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
+      <c r="R1" s="29"/>
     </row>
-    <row r="2" ht="15.25" spans="1:18">
+    <row r="2" ht="16.25" customHeight="1" spans="1:18">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -1324,9 +1476,9 @@
         <v>9</v>
       </c>
       <c r="Q2" s="11"/>
-      <c r="R2" s="18"/>
+      <c r="R2" s="29"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" ht="15.25" spans="1:17">
       <c r="A3" s="12">
         <v>10264767</v>
       </c>
@@ -1348,11 +1500,11 @@
       <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>12</v>
+      <c r="H3" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.833333333333333</v>
       </c>
       <c r="J3" s="16">
         <v>0.5</v>
@@ -1361,7 +1513,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="L3" s="16">
-        <v>0.583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="16">
         <v>0.833333333333333</v>
@@ -1379,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" ht="16" customHeight="1" spans="1:17">
       <c r="A4" s="12">
         <v>10294734</v>
       </c>
@@ -1390,34 +1542,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="16">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="16">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F4" s="16">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="16">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H4" s="16">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="16">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="J4" s="16">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="16">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="L4" s="16">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="16">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>13</v>
@@ -1432,7 +1584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" ht="16" customHeight="1" spans="1:17">
       <c r="A5" s="12">
         <v>10286678</v>
       </c>
@@ -1443,34 +1595,34 @@
         <v>16</v>
       </c>
       <c r="D5" s="16">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E5" s="16">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" s="16">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G5" s="16">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H5" s="16">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I5" s="16">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J5" s="16">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K5" s="16">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L5" s="16">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M5" s="16">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>13</v>
@@ -1485,49 +1637,184 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="15.25"/>
-    <row r="8" ht="15.25" spans="1:2">
-      <c r="A8" s="17">
+    <row r="6" ht="16" customHeight="1"/>
+    <row r="7" ht="16" customHeight="1" spans="1:7">
+      <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:7">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21">
+        <v>45894</v>
+      </c>
+      <c r="D8" s="21">
+        <v>45895</v>
+      </c>
+      <c r="E8" s="21">
+        <v>45896</v>
+      </c>
+      <c r="F8" s="21">
+        <v>45897</v>
+      </c>
+      <c r="G8" s="21">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="1:7">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:7">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" ht="15.25" spans="1:7">
+      <c r="A12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" ht="15.25" spans="1:7">
+      <c r="A13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:7">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25"/>
+    <row r="16" ht="15.25" spans="1:2">
+      <c r="A16" s="28">
         <v>10264767</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B16" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.25" spans="1:2">
-      <c r="A9" s="17">
+    <row r="17" ht="15.25" spans="1:2">
+      <c r="A17" s="28">
         <v>10264549</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>17</v>
+      <c r="B17" s="28" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" ht="15.25" spans="1:2">
-      <c r="A10" s="17">
+    <row r="18" ht="15.25" spans="1:2">
+      <c r="A18" s="28">
         <v>10294734</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
+      <c r="B18" s="28" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="11" ht="15.25" spans="1:2">
-      <c r="A11" s="17">
+    <row r="19" ht="15.25" spans="1:2">
+      <c r="A19" s="28">
         <v>10303306</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>19</v>
+      <c r="B19" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="1:2">
-      <c r="A12" s="17">
+    <row r="20" ht="15.25" spans="1:2">
+      <c r="A20" s="28">
         <v>10286678</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B20" s="28" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -1542,8 +1829,16 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Employee</t>
-  </si>
-  <si>
-    <t>SITE</t>
   </si>
   <si>
     <t>Monday</t>
@@ -62,106 +59,13 @@
     <t>Ahmed Sami</t>
   </si>
   <si>
-    <t>New cairo</t>
-  </si>
-  <si>
-    <t>----</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
     <t>YoussefShaban</t>
   </si>
   <si>
-    <t>Salma Samir</t>
-  </si>
-  <si>
-    <t>new cairo</t>
-  </si>
-  <si>
-    <t>Location: New Cairo</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date/Day</t>
-  </si>
-  <si>
-    <r>
-      <t>Ahmed Sami  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10264767</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Caroline Girges  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10303306</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fady Nagy  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10264549</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Salma Samir  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10286678</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Youssef Eldesokky   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10294734</t>
-    </r>
+    <t>Caroline Girges</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -171,6 +75,9 @@
   </si>
   <si>
     <t>Caroline Girgis</t>
+  </si>
+  <si>
+    <t>Salma Samir</t>
   </si>
 </sst>
 </file>
@@ -184,7 +91,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +127,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -381,15 +281,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +321,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -619,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -630,8 +517,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -641,20 +528,33 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -676,19 +576,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -702,17 +591,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +636,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -847,52 +792,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,162 +855,136 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1388,7 +1310,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1404,442 +1326,294 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:18">
+    <row r="1" ht="16.75" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="4">
+        <v>45901</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
+        <v>45902</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5">
+        <v>45903</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5">
+        <v>45904</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5">
+        <v>45905</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5">
+        <v>45906</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5">
+        <v>45907</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:17">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
-        <v>45894</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6">
-        <v>45895</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6">
-        <v>45896</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6">
-        <v>45897</v>
-      </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6">
-        <v>45898</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6">
-        <v>45892</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6">
-        <v>45893</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="29"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="22"/>
     </row>
-    <row r="2" ht="16.25" customHeight="1" spans="1:18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
+    <row r="3" ht="15.25" spans="1:16">
+      <c r="A3" s="9">
+        <v>10264767</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="29"/>
+      <c r="C3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="15.25" spans="1:17">
-      <c r="A3" s="12">
-        <v>10264767</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="4" ht="16" customHeight="1" spans="1:16">
+      <c r="A4" s="9">
+        <v>10294734</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="N4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:16">
+      <c r="A5" s="12">
+        <v>10303306</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="C5" s="14">
         <v>0.5</v>
       </c>
-      <c r="I3" s="16">
+      <c r="D5" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="J3" s="16">
+      <c r="E5" s="14">
         <v>0.5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="F5" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="L3" s="16">
+      <c r="G5" s="14">
         <v>0.5</v>
       </c>
-      <c r="M3" s="16">
+      <c r="H5" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1" spans="1:17">
-      <c r="A4" s="12">
-        <v>10294734</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="I5" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="J5" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="F4" s="16">
+      <c r="K5" s="14">
         <v>0.5</v>
       </c>
-      <c r="G4" s="16">
+      <c r="L5" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="H4" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:17">
-      <c r="A5" s="12">
-        <v>10286678</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M5" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>13</v>
+      <c r="M5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1"/>
-    <row r="7" ht="16" customHeight="1" spans="1:7">
-      <c r="A7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:7">
-      <c r="A8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="21">
-        <v>45894</v>
-      </c>
-      <c r="D8" s="21">
-        <v>45895</v>
-      </c>
-      <c r="E8" s="21">
-        <v>45896</v>
-      </c>
-      <c r="F8" s="21">
-        <v>45897</v>
-      </c>
-      <c r="G8" s="21">
-        <v>45898</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="1:7">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:7">
-      <c r="A10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:7">
-      <c r="A11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" ht="15.25" spans="1:7">
-      <c r="A12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" ht="15.25" spans="1:7">
-      <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G13" s="27">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:7">
-      <c r="A14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25"/>
+    <row r="7" customFormat="1" ht="16" customHeight="1"/>
+    <row r="8" customFormat="1" ht="16" customHeight="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
     <row r="16" ht="15.25" spans="1:2">
-      <c r="A16" s="28">
+      <c r="A16" s="15">
         <v>10264767</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>10</v>
+      <c r="B16" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="28">
+      <c r="A17" s="15">
         <v>10264549</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>25</v>
+      <c r="B17" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="28">
+      <c r="A18" s="15">
         <v>10294734</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>26</v>
+      <c r="B18" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="28">
+      <c r="A19" s="15">
         <v>10303306</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>27</v>
+      <c r="B19" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="28">
+      <c r="A20" s="15">
         <v>10286678</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>15</v>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+  <si>
+    <t>SITE</t>
   </si>
   <si>
     <t>Employee</t>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Ahmed Sami</t>
+  </si>
+  <si>
+    <t>----</t>
   </si>
   <si>
     <t>OFF</t>
@@ -506,34 +509,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,21 +524,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -576,8 +546,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -587,36 +570,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,47 +586,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -798,7 +710,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,34 +722,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,72 +834,40 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,7 +1187,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B5"/>
@@ -1326,278 +1206,271 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.75" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" ht="16" customHeight="1" spans="1:17">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4">
+        <v>45877</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4">
+        <v>45878</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4">
+        <v>45879</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
+        <v>45880</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4">
+        <v>45881</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4">
+        <v>45882</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4">
+        <v>45883</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
-        <v>45901</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5">
-        <v>45902</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5">
-        <v>45903</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5">
-        <v>45904</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5">
-        <v>45905</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5">
-        <v>45906</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5">
-        <v>45907</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:17">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="22"/>
+    <row r="3" customFormat="1" spans="1:16">
+      <c r="A3" s="7">
+        <v>10264767</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="15.25" spans="1:16">
-      <c r="A3" s="9">
+    <row r="4" customFormat="1" spans="1:16">
+      <c r="A4" s="7">
+        <v>10294734</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:16">
+      <c r="A5" s="7">
+        <v>10303306</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="15.25" spans="1:2">
+      <c r="A10" s="11">
         <v>10264767</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:16">
-      <c r="A4" s="9">
+    <row r="11" ht="15.25" spans="1:2">
+      <c r="A11" s="11">
+        <v>10264549</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:2">
+      <c r="A12" s="11">
         <v>10294734</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>10</v>
+      <c r="B12" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:16">
-      <c r="A5" s="12">
+    <row r="13" ht="15.25" spans="1:2">
+      <c r="A13" s="11">
         <v>10303306</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>10</v>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1"/>
-    <row r="7" customFormat="1" ht="16" customHeight="1"/>
-    <row r="8" customFormat="1" ht="16" customHeight="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="16" ht="15.25" spans="1:2">
-      <c r="A16" s="15">
-        <v>10264767</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="15">
-        <v>10264549</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="15">
-        <v>10294734</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="15">
-        <v>10303306</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="15">
+    <row r="14" ht="15.25" spans="1:2">
+      <c r="A14" s="11">
         <v>10286678</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>16</v>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1612,7 +1485,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>SITE</t>
   </si>
@@ -65,10 +65,10 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>CarolineGirgies</t>
+  </si>
+  <si>
     <t>YoussefShaban</t>
-  </si>
-  <si>
-    <t>Caroline Girges</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -560,16 +560,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,42 +1206,42 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="16" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="16.75" customHeight="1" spans="1:17">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>45877</v>
+        <v>45915</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4">
-        <v>45878</v>
+        <v>45916</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4">
-        <v>45879</v>
+        <v>45917</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4">
-        <v>45880</v>
+        <v>45918</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4">
-        <v>45881</v>
+        <v>45919</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4">
-        <v>45882</v>
+        <v>45920</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4">
-        <v>45883</v>
+        <v>45921</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="1" spans="1:16">
+    <row r="3" customFormat="1" ht="15.25" spans="1:16">
       <c r="A3" s="7">
         <v>10264767</v>
       </c>
@@ -1288,23 +1288,23 @@
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>10</v>
+      <c r="E3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.833333333333333</v>
       </c>
       <c r="K3" s="10">
         <v>0.583333333333333</v>
@@ -1325,42 +1325,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:16">
+    <row r="4" customFormat="1" ht="15.25" spans="1:16">
       <c r="A4" s="7">
-        <v>10294734</v>
+        <v>10303306</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="D4" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E4" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F4" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G4" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H4" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I4" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="J4" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K4" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="L4" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>11</v>
@@ -1375,36 +1375,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:16">
+    <row r="5" customFormat="1" ht="15.25" spans="1:16">
       <c r="A5" s="7">
-        <v>10303306</v>
+        <v>10294734</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>10</v>
+      <c r="C5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.833333333333333</v>
       </c>
       <c r="K5" s="10">
         <v>0.5</v>
@@ -1413,10 +1413,10 @@
         <v>0.833333333333333</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>11</v>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>SITE</t>
   </si>
@@ -65,10 +65,13 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>CarolineGirgies</t>
-  </si>
-  <si>
     <t>YoussefShaban</t>
+  </si>
+  <si>
+    <t>Caroline Girges</t>
+  </si>
+  <si>
+    <t>Karim Hamed</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -87,12 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -560,16 +564,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,40 +838,52 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1206,42 +1222,42 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="16.75" customHeight="1" spans="1:17">
+    <row r="1" ht="17.5" customHeight="1" spans="1:17">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4">
-        <v>45920</v>
+        <v>45927</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4">
-        <v>45921</v>
+        <v>45928</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="16"/>
     </row>
-    <row r="2" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+    <row r="2" ht="17.5" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1291,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="1" ht="15.25" spans="1:16">
+    <row r="3" ht="15.25" spans="1:16">
       <c r="A3" s="7">
         <v>10264767</v>
       </c>
@@ -1325,42 +1341,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.25" spans="1:16">
+    <row r="4" ht="15.25" spans="1:16">
       <c r="A4" s="7">
-        <v>10303306</v>
+        <v>10294734</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="10">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="10">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E4" s="10">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="10">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G4" s="10">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="10">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I4" s="10">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="10">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="K4" s="10">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="10">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>11</v>
@@ -1375,48 +1391,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.25" spans="1:16">
+    <row r="5" spans="1:16">
       <c r="A5" s="7">
-        <v>10294734</v>
+        <v>10303306</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="D5" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E5" s="10">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="F5" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G5" s="10">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H5" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I5" s="10">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="J5" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K5" s="10">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="L5" s="10">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>11</v>
@@ -1425,48 +1441,86 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" ht="15.25"/>
+    <row r="6" ht="15.25" spans="1:15">
+      <c r="A6" s="11">
+        <v>10306591</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="8" ht="15.25"/>
+    <row r="9" ht="15.25" spans="1:2">
+      <c r="A9" s="14">
+        <v>10264767</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="10" ht="15.25" spans="1:2">
-      <c r="A10" s="11">
-        <v>10264767</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
+      <c r="A10" s="14">
+        <v>10264549</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:2">
-      <c r="A11" s="11">
-        <v>10264549</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>14</v>
+      <c r="A11" s="14">
+        <v>10294734</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:2">
-      <c r="A12" s="11">
-        <v>10294734</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
+      <c r="A12" s="14">
+        <v>10303306</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:2">
-      <c r="A13" s="11">
-        <v>10303306</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:2">
-      <c r="A14" s="11">
+      <c r="A13" s="14">
         <v>10286678</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,14 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+  <si>
+    <t>Employee</t>
+  </si>
   <si>
     <t>SITE</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Caroline Girges</t>
-  </si>
-  <si>
-    <t>Karim Hamed</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -90,13 +87,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -838,35 +834,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -874,16 +860,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,7 +1194,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1222,45 +1210,45 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1" spans="1:17">
-      <c r="A1" s="2"/>
+    <row r="1" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4">
-        <v>45922</v>
+        <v>45929</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4">
-        <v>45923</v>
+        <v>45930</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4">
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4">
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4">
-        <v>45928</v>
+        <v>45935</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="16"/>
+      <c r="Q1" s="12"/>
     </row>
-    <row r="2" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -1291,7 +1279,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" ht="15.25" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A3" s="7">
         <v>10264767</v>
       </c>
@@ -1304,11 +1292,11 @@
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.833333333333333</v>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="10">
         <v>0.5</v>
@@ -1341,7 +1329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A4" s="7">
         <v>10294734</v>
       </c>
@@ -1391,7 +1379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A5" s="7">
         <v>10303306</v>
       </c>
@@ -1441,90 +1429,50 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="1:15">
-      <c r="A6" s="11">
-        <v>10306591</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
+    <row r="6" customFormat="1"/>
     <row r="8" ht="15.25"/>
     <row r="9" ht="15.25" spans="1:2">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <v>10264767</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:2">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <v>10264549</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>15</v>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:2">
-      <c r="A11" s="14">
+      <c r="A11" s="11">
         <v>10294734</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:2">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>10303306</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>17</v>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:2">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>10286678</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>18</v>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1539,6 +1487,7 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,14 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+  <si>
+    <t>SITE</t>
+  </si>
   <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>SITE</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -65,7 +65,7 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>YoussefShaban</t>
+    <t>Salma Samir</t>
   </si>
   <si>
     <t>Caroline Girges</t>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Caroline Girgis</t>
-  </si>
-  <si>
-    <t>Salma Samir</t>
   </si>
 </sst>
 </file>
@@ -834,44 +831,43 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1210,12 +1206,10 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.25" spans="1:17">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="4">
         <v>45929</v>
@@ -1245,10 +1239,12 @@
         <v>45935</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="13"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A2" s="5"/>
+    <row r="2" ht="16.25" spans="1:16">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -1279,7 +1275,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="3" ht="15.25" spans="1:16">
       <c r="A3" s="7">
         <v>10264767</v>
       </c>
@@ -1329,11 +1325,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="4" spans="1:16">
       <c r="A4" s="7">
-        <v>10294734</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>10286678</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="10">
@@ -1379,100 +1375,100 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A5" s="7">
+    <row r="6" ht="15.25"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7">
         <v>10303306</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C7" s="10">
         <v>0.375</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D7" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E7" s="10">
         <v>0.375</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F7" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G7" s="10">
         <v>0.375</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H7" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I7" s="10">
         <v>0.375</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J7" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K7" s="10">
         <v>0.375</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L7" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1"/>
-    <row r="8" ht="15.25"/>
-    <row r="9" ht="15.25" spans="1:2">
-      <c r="A9" s="11">
+    <row r="15" ht="15.25"/>
+    <row r="16" ht="15.25" spans="1:2">
+      <c r="A16" s="12">
         <v>10264767</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="15.25" spans="1:2">
-      <c r="A10" s="11">
+    <row r="17" ht="15.25" spans="1:2">
+      <c r="A17" s="12">
         <v>10264549</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="15.25" spans="1:2">
-      <c r="A11" s="11">
+    <row r="18" ht="15.25" spans="1:2">
+      <c r="A18" s="12">
         <v>10294734</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="1:2">
-      <c r="A12" s="11">
+    <row r="19" ht="15.25" spans="1:2">
+      <c r="A19" s="12">
         <v>10303306</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="1:2">
-      <c r="A13" s="11">
+    <row r="20" ht="15.25" spans="1:2">
+      <c r="A20" s="12">
         <v>10286678</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
+      <c r="B20" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1487,7 +1483,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,48 +27,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Satruday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+  <si>
+    <t>Location : New Cairo</t>
+  </si>
+  <si>
+    <t>TWWID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mon, Oct 6</t>
+  </si>
+  <si>
+    <t>Tue, Oct 7</t>
+  </si>
+  <si>
+    <t>Wed, Oct 8</t>
+  </si>
+  <si>
+    <t>Thu, Oct 9</t>
+  </si>
+  <si>
+    <t>Fri, Oct 10</t>
+  </si>
+  <si>
+    <t>Sat, Oct 11</t>
+  </si>
+  <si>
+    <t>Sun, Oct 12</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
   <si>
     <t>Ahmed Sami</t>
   </si>
   <si>
-    <t>----</t>
+    <t>-</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
+    <t>Caroline Girgies</t>
+  </si>
+  <si>
     <t>Salma Samir</t>
-  </si>
-  <si>
-    <t>Caroline Girges</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -91,7 +100,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,20 +109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -125,8 +122,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -291,7 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,19 +301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF073763"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,12 +504,57 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,21 +593,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -701,133 +729,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,38 +864,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,295 +1219,321 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.54545454545454" style="1"/>
-    <col min="2" max="2" width="17.7272727272727" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="5" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="29" width="11.6363636363636" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.0909090909091" style="1" customWidth="1"/>
-    <col min="32" max="35" width="5.18181818181818" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="4" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="28" width="11.6363636363636" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="31" max="34" width="5.18181818181818" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="1:17">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
-        <v>45929</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4">
-        <v>45930</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4">
-        <v>45931</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
-        <v>45932</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4">
-        <v>45933</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4">
-        <v>45934</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4">
-        <v>45935</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="13"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="16.25" spans="1:16">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" ht="15.25" spans="1:16">
-      <c r="A3" s="7">
-        <v>10264767</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="O3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
+        <v>10264767</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="8">
+        <v>10303306</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="8">
         <v>10286678</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
         <v>0.5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D6" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="E4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>11</v>
+      <c r="E6" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15.25"/>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7">
-        <v>10303306</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25"/>
-    <row r="16" ht="15.25" spans="1:2">
+    <row r="7" customFormat="1"/>
+    <row r="16" spans="1:2">
       <c r="A16" s="12">
         <v>10264767</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="17" ht="15.25" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" s="12">
         <v>10264549</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="18" ht="15.25" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" s="12">
         <v>10294734</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="19" ht="15.25" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" s="12">
         <v>10303306</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="20" ht="15.25" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="12">
         <v>10286678</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="10">
+    <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1483,7 +1541,8 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D6"/>
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1238,7 +1238,7 @@
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" ht="15.25" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" ht="15.25" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" ht="15.25" spans="1:16">
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6" t="s">
@@ -1340,7 +1340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" ht="15.25" spans="1:16">
       <c r="A4" s="8">
         <v>10264767</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" ht="15.25" spans="1:16">
       <c r="A5" s="8">
         <v>10303306</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" ht="15.25" spans="1:16">
       <c r="A6" s="8">
         <v>10286678</v>
       </c>
@@ -1491,7 +1491,8 @@
       </c>
     </row>
     <row r="7" customFormat="1"/>
-    <row r="16" spans="1:2">
+    <row r="15" ht="15.25"/>
+    <row r="16" ht="15.25" spans="1:2">
       <c r="A16" s="12">
         <v>10264767</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" ht="15.25" spans="1:2">
       <c r="A17" s="12">
         <v>10264549</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" ht="15.25" spans="1:2">
       <c r="A18" s="12">
         <v>10294734</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="15.25" spans="1:2">
       <c r="A19" s="12">
         <v>10303306</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="15.25" spans="1:2">
       <c r="A20" s="12">
         <v>10286678</v>
       </c>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -1422,10 +1422,10 @@
         <v>0.833333333333333</v>
       </c>
       <c r="K5" s="11">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="L5" s="11">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>14</v>
@@ -1472,10 +1472,10 @@
         <v>0.666666666666667</v>
       </c>
       <c r="K6" s="11">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="11">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>14</v>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Oct 6</t>
-  </si>
-  <si>
-    <t>Tue, Oct 7</t>
-  </si>
-  <si>
-    <t>Wed, Oct 8</t>
-  </si>
-  <si>
-    <t>Thu, Oct 9</t>
-  </si>
-  <si>
-    <t>Fri, Oct 10</t>
-  </si>
-  <si>
-    <t>Sat, Oct 11</t>
-  </si>
-  <si>
-    <t>Sun, Oct 12</t>
+    <t>Mon, Oct 13</t>
+  </si>
+  <si>
+    <t>Tue, Oct 14</t>
+  </si>
+  <si>
+    <t>Wed, Oct 15</t>
+  </si>
+  <si>
+    <t>Thu, Oct 16</t>
+  </si>
+  <si>
+    <t>Fri, Oct 17</t>
+  </si>
+  <si>
+    <t>Sat, Oct 18</t>
+  </si>
+  <si>
+    <t>Sun, Oct 19</t>
   </si>
   <si>
     <t>Start</t>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -567,32 +567,6 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -735,7 +709,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,34 +721,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,13 +833,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -876,28 +850,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1229,16 +1200,15 @@
   <cols>
     <col min="1" max="1" width="9.54545454545454" style="1"/>
     <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="4" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="28" width="11.6363636363636" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.0909090909091" style="1" customWidth="1"/>
-    <col min="31" max="34" width="5.18181818181818" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="3" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="26" width="11.6363636363636" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="29" max="32" width="5.18181818181818" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="1:16">
+    <row r="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1228,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="15.25" spans="1:16">
+    <row r="2" ht="16.75" customHeight="1" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1296,7 +1266,7 @@
     </row>
     <row r="3" ht="15.25" spans="1:16">
       <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1340,200 +1310,201 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="1:16">
-      <c r="A4" s="8">
+    <row r="4" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A4" s="7">
         <v>10264767</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0.791666666666667</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>0.791666666666667</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>0.791666666666667</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="1:16">
-      <c r="A5" s="8">
+    <row r="5" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A5" s="7">
         <v>10303306</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A6" s="7">
+        <v>10286678</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10">
         <v>0.333333333333333</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="E5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="E6" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F6" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="G6" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="15.25" spans="1:16">
-      <c r="A6" s="8">
-        <v>10286678</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="1"/>
     <row r="15" ht="15.25"/>
     <row r="16" ht="15.25" spans="1:2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>10264767</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>10264549</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>10294734</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>10303306</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>10286678</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Oct 13</t>
-  </si>
-  <si>
-    <t>Tue, Oct 14</t>
-  </si>
-  <si>
-    <t>Wed, Oct 15</t>
-  </si>
-  <si>
-    <t>Thu, Oct 16</t>
-  </si>
-  <si>
-    <t>Fri, Oct 17</t>
-  </si>
-  <si>
-    <t>Sat, Oct 18</t>
-  </si>
-  <si>
-    <t>Sun, Oct 19</t>
+    <t>Mon, Oct 20</t>
+  </si>
+  <si>
+    <t>Tue, Oct 21</t>
+  </si>
+  <si>
+    <t>Wed, Oct 22</t>
+  </si>
+  <si>
+    <t>Thu, Oct 23</t>
+  </si>
+  <si>
+    <t>Fri, Oct 24</t>
+  </si>
+  <si>
+    <t>Sat, Oct 25</t>
+  </si>
+  <si>
+    <t>Sun, Oct 26</t>
   </si>
   <si>
     <t>Start</t>
@@ -74,33 +74,76 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Caroline Girgies</t>
+    <t>Youssef Eldesokky</t>
+  </si>
+  <si>
+    <t>Youssuf Faek</t>
+  </si>
+  <si>
+    <t>Monday, October 20, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, October 21, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, October 22, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, October 23, 2025</t>
+  </si>
+  <si>
+    <t>Friday, October 24, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, October 25, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, October 26, 2025</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Shift Start</t>
+  </si>
+  <si>
+    <t>Shift End</t>
+  </si>
+  <si>
+    <t>Tarek Ibrahim</t>
+  </si>
+  <si>
+    <t>Adham Abdelbadee</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelfattah</t>
+  </si>
+  <si>
+    <t>Fady Nagy</t>
+  </si>
+  <si>
+    <t>Youssef Shaban</t>
+  </si>
+  <si>
+    <t>Caroline Girgis</t>
   </si>
   <si>
     <t>Salma Samir</t>
-  </si>
-  <si>
-    <t>Fady Nagy</t>
-  </si>
-  <si>
-    <t>Youssef Shaban</t>
-  </si>
-  <si>
-    <t>Caroline Girgis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +179,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -280,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +365,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,138 +784,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,7 +926,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,7 +937,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,11 +949,38 @@
     <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -879,7 +990,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1198,312 +1309,535 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.54545454545454" style="1"/>
-    <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="26" width="11.6363636363636" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.0909090909091" style="1" customWidth="1"/>
-    <col min="29" max="32" width="5.18181818181818" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.54545454545454" style="2"/>
+    <col min="2" max="2" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="3" max="14" width="12" style="2" customWidth="1"/>
+    <col min="15" max="25" width="11.6363636363636" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.0909090909091" style="2" customWidth="1"/>
+    <col min="28" max="31" width="5.18181818181818" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" ht="15.25" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A4" s="7">
+    <row r="4" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A4" s="8">
         <v>10264767</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A5" s="7">
-        <v>10303306</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A5" s="8">
+        <v>10294734</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>0.5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>0.5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>0.5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A6" s="8">
+        <v>10296428</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
         <v>0.583333333333333</v>
       </c>
-      <c r="J5" s="10">
+      <c r="D6" s="11">
         <v>0.916666666666667</v>
       </c>
-      <c r="K5" s="10">
+      <c r="E6" s="11">
         <v>0.583333333333333</v>
       </c>
-      <c r="L5" s="10">
+      <c r="F6" s="11">
         <v>0.916666666666667</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A6" s="7">
-        <v>10286678</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="G6" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="1"/>
+    <row r="8" ht="15.25"/>
+    <row r="9" ht="15.25" spans="3:16">
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="17">
+        <v>10227727</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="17">
+        <v>10245229</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="17">
+        <v>10256496</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="15" ht="15.25"/>
     <row r="16" ht="15.25" spans="1:2">
-      <c r="A16" s="11">
+      <c r="A16" s="20">
         <v>10264767</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="11">
+      <c r="A17" s="20">
         <v>10264549</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
+      <c r="B17" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="11">
+      <c r="A18" s="20">
         <v>10294734</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>18</v>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="11">
+      <c r="A19" s="20">
         <v>10303306</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>19</v>
+      <c r="B19" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="11">
+      <c r="A20" s="20">
         <v>10286678</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
+      <c r="B20" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -1513,6 +1847,13 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Oct 20</t>
-  </si>
-  <si>
-    <t>Tue, Oct 21</t>
-  </si>
-  <si>
-    <t>Wed, Oct 22</t>
-  </si>
-  <si>
-    <t>Thu, Oct 23</t>
-  </si>
-  <si>
-    <t>Fri, Oct 24</t>
-  </si>
-  <si>
-    <t>Sat, Oct 25</t>
-  </si>
-  <si>
-    <t>Sun, Oct 26</t>
+    <t>Mon, Oct 27</t>
+  </si>
+  <si>
+    <t>Tue, Oct 28</t>
+  </si>
+  <si>
+    <t>Wed, Oct 29</t>
+  </si>
+  <si>
+    <t>Thu, Oct 30</t>
+  </si>
+  <si>
+    <t>Fri, Oct 31</t>
+  </si>
+  <si>
+    <t>Sat, Nov 1</t>
+  </si>
+  <si>
+    <t>Sun, Nov 2</t>
   </si>
   <si>
     <t>Start</t>
@@ -74,31 +74,31 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>Caroline Girgies</t>
+  </si>
+  <si>
     <t>Youssef Eldesokky</t>
   </si>
   <si>
-    <t>Youssuf Faek</t>
-  </si>
-  <si>
-    <t>Monday, October 20, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, October 21, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, October 22, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, October 23, 2025</t>
-  </si>
-  <si>
-    <t>Friday, October 24, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, October 25, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, October 26, 2025</t>
+    <t>Monday, October 27, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, October 28, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, October 29, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, October 30, 2025</t>
+  </si>
+  <si>
+    <t>Friday, October 31, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, November 1, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, November 2, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -143,7 +143,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +181,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -370,13 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,141 +777,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,7 +916,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,7 +927,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,13 +939,16 @@
     <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,8 +972,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,7 +1294,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
@@ -1309,153 +1302,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.54545454545454" style="2"/>
-    <col min="2" max="2" width="16.2727272727273" style="2" customWidth="1"/>
-    <col min="3" max="14" width="12" style="2" customWidth="1"/>
-    <col min="15" max="25" width="11.6363636363636" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9" style="2" customWidth="1"/>
-    <col min="27" max="27" width="11.0909090909091" style="2" customWidth="1"/>
-    <col min="28" max="31" width="5.18181818181818" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.54545454545454" style="1"/>
+    <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="24" width="11.6363636363636" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="27" max="30" width="5.18181818181818" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="19" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" ht="15.25" spans="1:16">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A4" s="8">
+    <row r="4" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A4" s="7">
         <v>10264767</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0.791666666666667</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>0.791666666666667</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>0.791666666666667</v>
       </c>
       <c r="M4" s="21" t="s">
@@ -1471,91 +1464,91 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A5" s="8">
+    <row r="5" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A5" s="7">
+        <v>10303306</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A6" s="7">
         <v>10294734</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A6" s="8">
-        <v>10296428</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0.583333333333333</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.916666666666667</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.583333333333333</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.916666666666667</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.583333333333333</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.916666666666667</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>0.583333333333333</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.916666666666667</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.583333333333333</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>0.916666666666667</v>
       </c>
       <c r="M6" s="21" t="s">
@@ -1573,7 +1566,9 @@
     </row>
     <row r="7" customFormat="1"/>
     <row r="8" ht="15.25"/>
-    <row r="9" ht="15.25" spans="3:16">
+    <row r="9" ht="15.25" spans="1:17">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1602,8 +1597,9 @@
         <v>23</v>
       </c>
       <c r="P9" s="12"/>
+      <c r="Q9" s="22"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="10" ht="15.25" spans="1:16">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="11" ht="15.25" spans="1:16">
       <c r="A11" s="17">
         <v>10227727</v>
       </c>
@@ -1690,12 +1686,12 @@
       <c r="L11" s="19">
         <v>0.791666666666667</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="12" ht="15.25" spans="1:16">
       <c r="A12" s="17">
         <v>10245229</v>
       </c>
@@ -1745,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="13" ht="15.25" spans="1:16">
       <c r="A13" s="17">
         <v>10256496</v>
       </c>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection activeCell="A6" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1478,25 +1478,25 @@
         <v>0.666666666666667</v>
       </c>
       <c r="E5" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F5" s="10">
         <v>0.666666666666667</v>
       </c>
       <c r="G5" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H5" s="10">
         <v>0.666666666666667</v>
       </c>
       <c r="I5" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="J5" s="10">
         <v>0.666666666666667</v>
       </c>
       <c r="K5" s="10">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="L5" s="10">
         <v>0.666666666666667</v>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:B6"/>
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1717,7 +1717,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="I12" s="19">
-        <v>0.791666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="J12" s="19">
         <v>0.0416666666666667</v>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Oct 27</t>
-  </si>
-  <si>
-    <t>Tue, Oct 28</t>
-  </si>
-  <si>
-    <t>Wed, Oct 29</t>
-  </si>
-  <si>
-    <t>Thu, Oct 30</t>
-  </si>
-  <si>
-    <t>Fri, Oct 31</t>
-  </si>
-  <si>
-    <t>Sat, Nov 1</t>
-  </si>
-  <si>
-    <t>Sun, Nov 2</t>
+    <t>Mon, Nov 3</t>
+  </si>
+  <si>
+    <t>Tue, Nov 4</t>
+  </si>
+  <si>
+    <t>Wed, Nov 5</t>
+  </si>
+  <si>
+    <t>Thu, Nov 6</t>
+  </si>
+  <si>
+    <t>Fri, Nov 7</t>
+  </si>
+  <si>
+    <t>Sat, Nov 8</t>
+  </si>
+  <si>
+    <t>Sun, Nov 9</t>
   </si>
   <si>
     <t>Start</t>
@@ -74,13 +74,13 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>Youssef Eldesokky</t>
+  </si>
+  <si>
     <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Youssef Eldesokky</t>
-  </si>
-  <si>
-    <t>Monday, October 27, 2025</t>
+    <t>Monday, November 3, 2025</t>
   </si>
   <si>
     <t>Tuesday, October 28, 2025</t>
@@ -110,13 +110,13 @@
     <t>Shift End</t>
   </si>
   <si>
+    <t>Mohamed Ahmed Fathy</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelkader</t>
+  </si>
+  <si>
     <t>Tarek Ibrahim</t>
-  </si>
-  <si>
-    <t>Adham Abdelbadee</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelfattah</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -143,7 +143,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -777,141 +784,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -927,7 +937,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,16 +949,19 @@
     <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,12 +973,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -973,7 +986,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1294,7 +1307,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
@@ -1304,531 +1317,542 @@
   <cols>
     <col min="1" max="1" width="9.54545454545454" style="1"/>
     <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="24" width="11.6363636363636" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.0909090909091" style="1" customWidth="1"/>
-    <col min="27" max="30" width="5.18181818181818" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="3" max="12" width="12" style="1" customWidth="1"/>
+    <col min="13" max="23" width="11.6363636363636" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="26" max="29" width="5.18181818181818" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P2" s="7"/>
     </row>
-    <row r="3" ht="15.25" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A4" s="7">
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A4" s="8">
         <v>10264767</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="21" t="s">
+      <c r="I4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A5" s="7">
+    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A5" s="8">
+        <v>10294734</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A6" s="8">
         <v>10303306</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="11">
         <v>0.375</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="11">
         <v>0.375</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H6" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I6" s="11">
         <v>0.375</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J6" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K6" s="11">
         <v>0.375</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L6" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="M5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A6" s="7">
-        <v>10294734</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="21" t="s">
+      <c r="M6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="1"/>
     <row r="8" ht="15.25"/>
-    <row r="9" ht="15.25" spans="1:17">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="22"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="24"/>
     </row>
-    <row r="10" ht="15.25" spans="1:16">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="15.25" spans="1:16">
-      <c r="A11" s="17">
+    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="19">
+        <v>10260539</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="19">
+        <v>10225636</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="19">
         <v>10227727</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20">
         <v>0.375</v>
       </c>
-      <c r="D11" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D13" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="20">
         <v>0.375</v>
       </c>
-      <c r="F11" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="F13" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G13" s="20">
         <v>0.375</v>
       </c>
-      <c r="H11" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="H13" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="20">
         <v>0.375</v>
       </c>
-      <c r="J11" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="J13" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="20">
         <v>0.375</v>
       </c>
-      <c r="L11" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="L13" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
     </row>
-    <row r="12" ht="15.25" spans="1:16">
-      <c r="A12" s="17">
-        <v>10245229</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0.875</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I12" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L12" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
     </row>
-    <row r="13" ht="15.25" spans="1:16">
-      <c r="A13" s="17">
-        <v>10256496</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.875</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25"/>
-    <row r="16" ht="15.25" spans="1:2">
-      <c r="A16" s="20">
-        <v>10264767</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
     </row>
     <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="20">
-        <v>10264549</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="20">
-        <v>10294734</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>31</v>
+      <c r="A18" s="22">
+        <v>10264767</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="20">
-        <v>10303306</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>32</v>
+      <c r="A19" s="22">
+        <v>10264549</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="20">
+      <c r="A20" s="22">
+        <v>10294734</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:2">
+      <c r="A21" s="22">
+        <v>10303306</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:2">
+      <c r="A22" s="22">
         <v>10286678</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Nov 3</t>
-  </si>
-  <si>
-    <t>Tue, Nov 4</t>
-  </si>
-  <si>
-    <t>Wed, Nov 5</t>
-  </si>
-  <si>
-    <t>Thu, Nov 6</t>
-  </si>
-  <si>
-    <t>Fri, Nov 7</t>
-  </si>
-  <si>
-    <t>Sat, Nov 8</t>
-  </si>
-  <si>
-    <t>Sun, Nov 9</t>
+    <t>Mon, Nov 10</t>
+  </si>
+  <si>
+    <t>Tue, Nov 11</t>
+  </si>
+  <si>
+    <t>Wed, Nov 12</t>
+  </si>
+  <si>
+    <t>Thu, Nov 13</t>
+  </si>
+  <si>
+    <t>Fri, Nov 14</t>
+  </si>
+  <si>
+    <t>Sat, Nov 15</t>
+  </si>
+  <si>
+    <t>Sun, Nov 16</t>
   </si>
   <si>
     <t>Start</t>
@@ -74,36 +74,21 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Youssef Eldesokky</t>
+    <t>Salma Samir</t>
   </si>
   <si>
     <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Monday, November 3, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, October 28, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, October 29, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, October 30, 2025</t>
-  </si>
-  <si>
-    <t>Friday, October 31, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, November 1, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, November 2, 2025</t>
-  </si>
-  <si>
     <t>Employee ID</t>
   </si>
   <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Pick up point</t>
+  </si>
+  <si>
     <t>Shift Start</t>
   </si>
   <si>
@@ -113,12 +98,30 @@
     <t>Mohamed Ahmed Fathy</t>
   </si>
   <si>
+    <t>Mohandsein</t>
+  </si>
+  <si>
+    <t>ميدان الدقي</t>
+  </si>
+  <si>
     <t>Ahmed Abdelkader</t>
   </si>
   <si>
+    <t>15th May - Helwan - Kornesh Maadi</t>
+  </si>
+  <si>
+    <t>مستشفي السلام - كورنيش</t>
+  </si>
+  <si>
     <t>Tarek Ibrahim</t>
   </si>
   <si>
+    <t>October &amp; Zayed</t>
+  </si>
+  <si>
+    <t>زايد 2000</t>
+  </si>
+  <si>
     <t>Fady Nagy</t>
   </si>
   <si>
@@ -126,27 +129,33 @@
   </si>
   <si>
     <t>Caroline Girgis</t>
-  </si>
-  <si>
-    <t>Salma Samir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="180" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM"/>
+    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,6 +202,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -371,25 +393,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF434343"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF434343"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFEA4335"/>
       </patternFill>
     </fill>
     <fill>
@@ -585,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -649,6 +671,47 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -784,208 +847,216 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,6 +1111,54 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF46BDC6"/>
+          <bgColor rgb="FF46BDC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1307,7 +1426,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
@@ -1317,547 +1436,571 @@
   <cols>
     <col min="1" max="1" width="9.54545454545454" style="1"/>
     <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="23" width="11.6363636363636" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.0909090909091" style="1" customWidth="1"/>
-    <col min="26" max="29" width="5.18181818181818" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="3" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="22" width="11.6363636363636" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="25" max="28" width="5.18181818181818" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A4" s="8">
+    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A4" s="9">
         <v>10264767</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12">
         <v>0.5</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11">
+      <c r="I4" s="12">
         <v>0.5</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="11">
+      <c r="K4" s="12">
         <v>0.5</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A5" s="8">
-        <v>10294734</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A5" s="9">
+        <v>10286678</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="12">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="E5" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="12">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="G5" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="12">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="I5" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="12">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="K5" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="12">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A6" s="8">
+    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A6" s="9">
         <v>10303306</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>0.375</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>0.375</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="12">
         <v>0.375</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>0.375</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="1"/>
-    <row r="8" ht="15.25"/>
-    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+    <row r="8" s="2" customFormat="1" spans="1:20">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
+        <v>45971</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15">
+        <v>45972</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15">
+        <v>45973</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15">
+        <v>45974</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15">
+        <v>45975</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="15">
+        <v>45976</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="15">
+        <v>45977</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:20">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
+      <c r="F9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14" t="s">
+      <c r="G9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="15.25" spans="1:18">
+      <c r="A10" s="19">
+        <v>10260539</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14" t="s">
+      <c r="C10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="24"/>
+      <c r="D10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
+    <row r="11" s="3" customFormat="1" ht="15.25" spans="1:18">
+      <c r="A11" s="19">
+        <v>10225636</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>26</v>
+      <c r="D11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M11" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="19">
-        <v>10260539</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>14</v>
-      </c>
+    <row r="12" s="3" customFormat="1" ht="15.25" spans="1:18">
+      <c r="A12" s="19">
+        <v>10227727</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="19">
-        <v>10225636</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K12" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L12" s="20">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="19">
-        <v>10227727</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="L13" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="22">
+      <c r="A18" s="24">
         <v>10264767</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="22">
+      <c r="A19" s="24">
         <v>10264549</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>30</v>
+      <c r="B19" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="22">
+      <c r="A20" s="24">
         <v>10294734</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>31</v>
+      <c r="B20" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:2">
-      <c r="A21" s="22">
+      <c r="A21" s="24">
         <v>10303306</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>32</v>
+      <c r="B21" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:2">
-      <c r="A22" s="22">
+      <c r="A22" s="24">
         <v>10286678</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>33</v>
+      <c r="B22" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -1867,16 +2010,51 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>_xleta.COUNTIF (A:A,A10)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="expression" dxfId="0" priority="42">
+      <formula>_xleta.COUNTIF (A:A,A11)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>_xleta.COUNTIF (A:A,A12)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="expression" dxfId="0" priority="64">
+      <formula>_xleta.COUNTIF (A:A,A8)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="containsText" dxfId="1" priority="60" operator="between" text="Active">
+      <formula>NOT(ISERROR(SEARCH("Active",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="61" operator="between" text="Leaver">
+      <formula>NOT(ISERROR(SEARCH("Leaver",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="62" operator="between" text="Training">
+      <formula>NOT(ISERROR(SEARCH("Training",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="63" operator="between" text="Promoted">
+      <formula>NOT(ISERROR(SEARCH("Promoted",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -74,61 +74,40 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>Caroline Girgies</t>
+  </si>
+  <si>
+    <t>Youssuf Faek</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Shift Start</t>
+  </si>
+  <si>
+    <t>Shift End</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Fathy</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelkader</t>
+  </si>
+  <si>
+    <t>Tarek Ibrahim</t>
+  </si>
+  <si>
+    <t>Fady Nagy</t>
+  </si>
+  <si>
+    <t>Youssef Shaban</t>
+  </si>
+  <si>
+    <t>Caroline Girgis</t>
+  </si>
+  <si>
     <t>Salma Samir</t>
-  </si>
-  <si>
-    <t>Caroline Girgies</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Pick up point</t>
-  </si>
-  <si>
-    <t>Shift Start</t>
-  </si>
-  <si>
-    <t>Shift End</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed Fathy</t>
-  </si>
-  <si>
-    <t>Mohandsein</t>
-  </si>
-  <si>
-    <t>ميدان الدقي</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelkader</t>
-  </si>
-  <si>
-    <t>15th May - Helwan - Kornesh Maadi</t>
-  </si>
-  <si>
-    <t>مستشفي السلام - كورنيش</t>
-  </si>
-  <si>
-    <t>Tarek Ibrahim</t>
-  </si>
-  <si>
-    <t>October &amp; Zayed</t>
-  </si>
-  <si>
-    <t>زايد 2000</t>
-  </si>
-  <si>
-    <t>Fady Nagy</t>
-  </si>
-  <si>
-    <t>Youssef Shaban</t>
-  </si>
-  <si>
-    <t>Caroline Girgis</t>
   </si>
 </sst>
 </file>
@@ -607,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -664,6 +643,60 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -853,7 +886,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,34 +898,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,35 +1049,44 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="181" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="181" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,10 +1095,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,50 +1153,12 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF00FF"/>
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF46BDC6"/>
-          <bgColor rgb="FF46BDC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1426,10 +1430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection activeCell="A6" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1444,7 +1448,7 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1583,420 +1587,382 @@
       <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A5" s="9">
-        <v>10286678</v>
+        <v>10303306</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A6" s="15">
+        <v>10296428</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18">
         <v>0.583333333333333</v>
       </c>
-      <c r="D5" s="12">
+      <c r="H6" s="12">
         <v>0.916666666666667</v>
       </c>
-      <c r="E5" s="12">
+      <c r="I6" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="F5" s="12">
+      <c r="J6" s="12">
         <v>0.916666666666667</v>
       </c>
-      <c r="G5" s="12">
+      <c r="K6" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="H5" s="12">
+      <c r="L6" s="12">
         <v>0.916666666666667</v>
       </c>
-      <c r="I5" s="12">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="M5" s="25" t="s">
+      <c r="M6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
-      <c r="A6" s="9">
-        <v>10303306</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="1"/>
-    <row r="8" s="2" customFormat="1" spans="1:20">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
+    <row r="8" s="2" customFormat="1" spans="1:18">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20">
         <v>45971</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15">
+      <c r="D8" s="21"/>
+      <c r="E8" s="20">
         <v>45972</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15">
+      <c r="F8" s="21"/>
+      <c r="G8" s="20">
         <v>45973</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15">
+      <c r="H8" s="21"/>
+      <c r="I8" s="20">
         <v>45974</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15">
+      <c r="J8" s="21"/>
+      <c r="K8" s="20">
         <v>45975</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="15">
+      <c r="L8" s="21"/>
+      <c r="M8" s="20">
         <v>45976</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="15">
+      <c r="N8" s="21"/>
+      <c r="O8" s="20">
         <v>45977</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="16"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="21"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:20">
-      <c r="A9" s="14" t="s">
+    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:18">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="24">
+        <v>10260539</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="C10" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="24">
+        <v>10225636</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="C11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15.25" spans="1:18">
-      <c r="A10" s="19">
-        <v>10260539</v>
-      </c>
-      <c r="B10" s="20" t="s">
+    <row r="12" s="3" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="24">
+        <v>10227727</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M10" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N10" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="15.25" spans="1:18">
-      <c r="A11" s="19">
-        <v>10225636</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K11" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L11" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M11" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N11" s="21">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="15.25" spans="1:18">
-      <c r="A12" s="19">
-        <v>10227727</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="C12" s="26">
         <v>0.375</v>
       </c>
-      <c r="F12" s="22">
+      <c r="D12" s="26">
         <v>0.75</v>
       </c>
-      <c r="G12" s="22">
+      <c r="E12" s="26">
         <v>0.375</v>
       </c>
-      <c r="H12" s="22">
+      <c r="F12" s="26">
         <v>0.75</v>
       </c>
-      <c r="I12" s="22">
+      <c r="G12" s="26">
         <v>0.375</v>
       </c>
-      <c r="J12" s="22">
+      <c r="H12" s="26">
         <v>0.75</v>
       </c>
-      <c r="K12" s="22">
+      <c r="I12" s="26">
         <v>0.375</v>
       </c>
-      <c r="L12" s="22">
+      <c r="J12" s="26">
         <v>0.75</v>
       </c>
-      <c r="M12" s="22">
+      <c r="K12" s="26">
         <v>0.375</v>
       </c>
-      <c r="N12" s="22">
+      <c r="L12" s="26">
         <v>0.75</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" customFormat="1"/>
     <row r="14" customFormat="1"/>
     <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
+    <row r="16" customFormat="1" ht="15.25"/>
     <row r="17" spans="1:2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="27">
+        <v>10264767</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="24">
-        <v>10264767</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>12</v>
+      <c r="A18" s="27">
+        <v>10264549</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="24">
-        <v>10264549</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>31</v>
+      <c r="A19" s="27">
+        <v>10294734</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="24">
-        <v>10294734</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>32</v>
+      <c r="A20" s="27">
+        <v>10303306</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:2">
-      <c r="A21" s="24">
-        <v>10303306</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:2">
-      <c r="A22" s="24">
+      <c r="A21" s="27">
         <v>10286678</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>15</v>
+      <c r="B21" s="27" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2010,6 +1976,7 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2017,7 +1984,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
@@ -2041,20 +2007,6 @@
       <formula>_xleta.COUNTIF (A:A,A8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
-    <cfRule type="containsText" dxfId="1" priority="60" operator="between" text="Active">
-      <formula>NOT(ISERROR(SEARCH("Active",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="61" operator="between" text="Leaver">
-      <formula>NOT(ISERROR(SEARCH("Leaver",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="62" operator="between" text="Training">
-      <formula>NOT(ISERROR(SEARCH("Training",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="63" operator="between" text="Promoted">
-      <formula>NOT(ISERROR(SEARCH("Promoted",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Nov 10</t>
-  </si>
-  <si>
-    <t>Tue, Nov 11</t>
-  </si>
-  <si>
-    <t>Wed, Nov 12</t>
-  </si>
-  <si>
-    <t>Thu, Nov 13</t>
-  </si>
-  <si>
-    <t>Fri, Nov 14</t>
-  </si>
-  <si>
-    <t>Sat, Nov 15</t>
-  </si>
-  <si>
-    <t>Sun, Nov 16</t>
+    <t>Mon, Nov 17</t>
+  </si>
+  <si>
+    <t>Tue, Nov 18</t>
+  </si>
+  <si>
+    <t>Wed, Nov 19</t>
+  </si>
+  <si>
+    <t>Thu, Nov 20</t>
+  </si>
+  <si>
+    <t>Fri, Nov 21</t>
+  </si>
+  <si>
+    <t>Sat, Nov 22</t>
+  </si>
+  <si>
+    <t>Sun, Nov 23</t>
   </si>
   <si>
     <t>Start</t>
@@ -74,10 +74,16 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>Youssef Eldesokky</t>
+  </si>
+  <si>
     <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Youssuf Faek</t>
+    <t>Saturday, November 15, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, November 16, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -90,6 +96,9 @@
   </si>
   <si>
     <t>Mohamed Ahmed Fathy</t>
+  </si>
+  <si>
+    <t>Soha Omer</t>
   </si>
   <si>
     <t>Ahmed Abdelkader</t>
@@ -114,27 +123,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="180" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,19 +181,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -372,25 +359,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF434343"/>
-        <bgColor rgb="FF434343"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
-        <bgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -586,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -598,6 +585,17 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -649,6 +647,19 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -661,90 +672,8 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -880,226 +809,215 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1153,16 +1071,6 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1430,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:B6"/>
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1448,109 +1356,109 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A4" s="9">
         <v>10264767</v>
       </c>
@@ -1563,10 +1471,10 @@
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="12">
@@ -1587,386 +1495,439 @@
       <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="28" t="s">
+      <c r="M4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A5" s="9">
-        <v>10303306</v>
+        <v>10294734</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A6" s="9">
+        <v>10303306</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12">
         <v>0.375</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E6" s="12">
         <v>0.375</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G6" s="12">
         <v>0.375</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I6" s="12">
         <v>0.375</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K6" s="12">
         <v>0.375</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L6" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="28" t="s">
+      <c r="M6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A6" s="15">
-        <v>10296428</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" customFormat="1" ht="15.25"/>
+    <row r="8" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="15"/>
     </row>
-    <row r="7" customFormat="1"/>
-    <row r="8" s="2" customFormat="1" spans="1:18">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20">
-        <v>45971</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20">
-        <v>45972</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20">
-        <v>45973</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20">
-        <v>45974</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20">
-        <v>45975</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20">
-        <v>45976</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20">
-        <v>45977</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="21"/>
+    <row r="9" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:18">
-      <c r="A9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+    <row r="10" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="20">
+        <v>10260539</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="24">
-        <v>10260539</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="25">
+    <row r="11" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="20">
+        <v>10296219</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D11" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E11" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F11" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G11" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H11" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I11" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J11" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K11" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L11" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="29" t="s">
+      <c r="M11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="24">
+    <row r="12" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="20">
         <v>10225636</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="B12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D12" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E12" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F12" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G12" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H12" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I12" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J12" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K12" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L12" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="29" t="s">
+      <c r="M12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="24">
+    <row r="13" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="20">
         <v>10227727</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="23">
         <v>0.375</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D13" s="23">
         <v>0.75</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E13" s="23">
         <v>0.375</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F13" s="23">
         <v>0.75</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G13" s="23">
         <v>0.375</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H13" s="23">
         <v>0.75</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I13" s="23">
         <v>0.375</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J13" s="23">
         <v>0.75</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K13" s="23">
         <v>0.375</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L13" s="23">
         <v>0.75</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
-    <row r="13" customFormat="1"/>
     <row r="14" customFormat="1"/>
     <row r="15" customFormat="1"/>
     <row r="16" customFormat="1" ht="15.25"/>
-    <row r="17" spans="1:2">
-      <c r="A17" s="27">
+    <row r="17" ht="15.25" spans="1:2">
+      <c r="A17" s="24">
         <v>10264767</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="27">
+      <c r="A18" s="24">
         <v>10264549</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>23</v>
+      <c r="B18" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="27">
+      <c r="A19" s="24">
         <v>10294734</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>24</v>
+      <c r="B19" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="27">
+      <c r="A20" s="24">
         <v>10303306</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>25</v>
+      <c r="B20" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:2">
-      <c r="A21" s="27">
+      <c r="A21" s="24">
         <v>10286678</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>26</v>
+      <c r="B21" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -1983,30 +1944,9 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="0" priority="53">
-      <formula>_xleta.COUNTIF (A:A,A10)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="0" priority="42">
-      <formula>_xleta.COUNTIF (A:A,A11)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="0" priority="31">
-      <formula>_xleta.COUNTIF (A:A,A12)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
-    <cfRule type="expression" dxfId="0" priority="64">
-      <formula>_xleta.COUNTIF (A:A,A8)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Nov 17</t>
-  </si>
-  <si>
-    <t>Tue, Nov 18</t>
-  </si>
-  <si>
-    <t>Wed, Nov 19</t>
-  </si>
-  <si>
-    <t>Thu, Nov 20</t>
-  </si>
-  <si>
-    <t>Fri, Nov 21</t>
-  </si>
-  <si>
-    <t>Sat, Nov 22</t>
-  </si>
-  <si>
-    <t>Sun, Nov 23</t>
+    <t>Mon, Nov 24</t>
+  </si>
+  <si>
+    <t>Tue, Nov 25</t>
+  </si>
+  <si>
+    <t>Wed, Nov 26</t>
+  </si>
+  <si>
+    <t>Thu, Nov 27</t>
+  </si>
+  <si>
+    <t>Fri, Nov 28</t>
+  </si>
+  <si>
+    <t>Sat, Nov 29</t>
+  </si>
+  <si>
+    <t>Sun, Nov 30</t>
   </si>
   <si>
     <t>Start</t>
@@ -80,10 +80,22 @@
     <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Saturday, November 15, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, November 16, 2025</t>
+    <t>Mon, Nov 25</t>
+  </si>
+  <si>
+    <t>Mon, Nov 26</t>
+  </si>
+  <si>
+    <t>Mon, Nov 27</t>
+  </si>
+  <si>
+    <t>Mon, Nov 28</t>
+  </si>
+  <si>
+    <t>Mon, Nov 29</t>
+  </si>
+  <si>
+    <t>Mon, Nov 30</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -95,16 +107,16 @@
     <t>Shift End</t>
   </si>
   <si>
+    <t>Tarek Ibrahim</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelkader</t>
+  </si>
+  <si>
     <t>Mohamed Ahmed Fathy</t>
   </si>
   <si>
     <t>Soha Omer</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelkader</t>
-  </si>
-  <si>
-    <t>Tarek Ibrahim</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -573,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -625,6 +637,32 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -639,20 +677,33 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -666,15 +717,77 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +807,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -815,7 +973,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,34 +985,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -951,7 +1109,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,33 +1118,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,26 +1159,53 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1338,10 +1526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1356,7 +1544,7 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1564,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1413,8 +1601,8 @@
       <c r="P2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1458,472 +1646,470 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A4" s="9">
+    <row r="4" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A4" s="10">
         <v>10264767</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>0.5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>0.5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="13">
         <v>0.5</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="13">
         <v>0.5</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A5" s="9">
+    <row r="5" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A5" s="10">
         <v>10294734</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>0.583333333333333</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>0.583333333333333</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <v>0.583333333333333</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="13">
         <v>0.583333333333333</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="13">
         <v>0.583333333333333</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="13">
         <v>0</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="25" t="s">
+      <c r="M5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
-      <c r="A6" s="9">
+    <row r="6" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A6" s="10">
         <v>10303306</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>0.375</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>0.375</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <v>0.375</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="13">
         <v>0.375</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <v>0.375</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="25" t="s">
+      <c r="M6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.25"/>
-    <row r="8" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+    <row r="7" s="1" customFormat="1" ht="15.25"/>
+    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="16"/>
     </row>
-    <row r="9" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>21</v>
+      <c r="C9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="20">
+    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="21">
+        <v>10227727</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" ht="15.25" spans="1:16">
+      <c r="A11" s="23">
+        <v>10225636</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:16">
+      <c r="A12" s="26">
         <v>10260539</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="22">
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D12" s="28">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E12" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F12" s="28">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G12" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H12" s="28">
         <v>0.0416666666666667</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I12" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J12" s="28">
         <v>0.0416666666666667</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K12" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L12" s="28">
         <v>0.0416666666666667</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="13" t="s">
+      <c r="M12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="20">
+    <row r="13" s="1" customFormat="1" spans="1:16">
+      <c r="A13" s="29">
         <v>10296219</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="B13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="31">
         <v>0.666666666666667</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D13" s="31">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E13" s="31">
         <v>0.666666666666667</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F13" s="31">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G13" s="31">
         <v>0.666666666666667</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H13" s="31">
         <v>0.0416666666666667</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I13" s="31">
         <v>0.666666666666667</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J13" s="31">
         <v>0.0416666666666667</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K13" s="31">
         <v>0.666666666666667</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L13" s="31">
         <v>0.0416666666666667</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="13" t="s">
+      <c r="M13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="20">
-        <v>10225636</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J12" s="22">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L12" s="22">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>14</v>
+    <row r="14" ht="15.25"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="32">
+        <v>10264767</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="20">
-        <v>10227727</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="32">
+        <v>10264549</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1" ht="15.25"/>
-    <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="24">
-        <v>10264767</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>12</v>
+    <row r="17" spans="1:2">
+      <c r="A17" s="32">
+        <v>10294734</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="24">
-        <v>10264549</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>26</v>
+    <row r="18" spans="1:2">
+      <c r="A18" s="32">
+        <v>10303306</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="24">
-        <v>10294734</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="24">
-        <v>10303306</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:2">
-      <c r="A21" s="24">
+    <row r="19" spans="1:2">
+      <c r="A19" s="32">
         <v>10286678</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>29</v>
+      <c r="B19" s="32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Nov 24</t>
-  </si>
-  <si>
-    <t>Tue, Nov 25</t>
-  </si>
-  <si>
-    <t>Wed, Nov 26</t>
-  </si>
-  <si>
-    <t>Thu, Nov 27</t>
-  </si>
-  <si>
-    <t>Fri, Nov 28</t>
-  </si>
-  <si>
-    <t>Sat, Nov 29</t>
-  </si>
-  <si>
-    <t>Sun, Nov 30</t>
+    <t>Mon, Dec 1</t>
+  </si>
+  <si>
+    <t>Tue, Dec 2</t>
+  </si>
+  <si>
+    <t>Wed, Dec 3</t>
+  </si>
+  <si>
+    <t>Thu, Dec 4</t>
+  </si>
+  <si>
+    <t>Fri, Dec 5</t>
+  </si>
+  <si>
+    <t>Sat, Dec 6</t>
+  </si>
+  <si>
+    <t>Sun, Dec 7</t>
   </si>
   <si>
     <t>Start</t>
@@ -80,22 +80,25 @@
     <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Mon, Nov 25</t>
-  </si>
-  <si>
-    <t>Mon, Nov 26</t>
-  </si>
-  <si>
-    <t>Mon, Nov 27</t>
-  </si>
-  <si>
-    <t>Mon, Nov 28</t>
-  </si>
-  <si>
-    <t>Mon, Nov 29</t>
-  </si>
-  <si>
-    <t>Mon, Nov 30</t>
+    <t>Monday, December 1, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, December 2, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, December 3, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, December 4, 2025</t>
+  </si>
+  <si>
+    <t>Friday, December 5, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, December 6, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, December 7, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -107,16 +110,22 @@
     <t>Shift End</t>
   </si>
   <si>
+    <t>Ahmed Abdelkader</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Fathy</t>
+  </si>
+  <si>
+    <t>Soha Omer</t>
+  </si>
+  <si>
+    <t>Mohamed Abdallah</t>
+  </si>
+  <si>
     <t>Tarek Ibrahim</t>
   </si>
   <si>
-    <t>Ahmed Abdelkader</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed Fathy</t>
-  </si>
-  <si>
-    <t>Soha Omer</t>
+    <t>Adham Abdelbadea</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -143,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +190,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF222222"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -189,7 +198,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -585,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -713,81 +728,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,51 +742,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -967,141 +862,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1126,7 +1024,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,65 +1045,47 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1526,10 +1406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="D18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1544,572 +1424,652 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+    <row r="1" s="1" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A4" s="10">
+    <row r="4" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A4" s="11">
         <v>10264767</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="I4" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="33" t="s">
+      <c r="K4" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A5" s="10">
+    <row r="5" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A5" s="11">
         <v>10294734</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="33" t="s">
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A6" s="10">
+    <row r="6" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A6" s="11">
         <v>10303306</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>0.375</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.375</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <v>0.375</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="14">
         <v>0.375</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="14">
         <v>0.375</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="33" t="s">
+      <c r="M6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.25"/>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+    <row r="8" ht="15.25"/>
+    <row r="9" s="2" customFormat="1" ht="29.75" customHeight="1" spans="1:17">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="31"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="22">
+        <v>10225636</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="22">
+        <v>10260539</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="22">
+        <v>10296219</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A14" s="22">
+        <v>10254383</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A15" s="22">
+        <v>10227727</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="17" ht="15.25" spans="1:4">
+      <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>25</v>
+      <c r="D17" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="21">
-        <v>10227727</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="22">
+    <row r="18" ht="15.25" spans="1:4">
+      <c r="A18" s="26">
+        <v>10245229</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D18" s="28">
         <v>0.75</v>
       </c>
-      <c r="E10" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
     </row>
-    <row r="11" ht="15.25" spans="1:16">
-      <c r="A11" s="23">
-        <v>10225636</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J11" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K11" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>14</v>
+    <row r="21" ht="15.25"/>
+    <row r="22" ht="15.25" spans="1:2">
+      <c r="A22" s="29">
+        <v>10264767</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="1:16">
-      <c r="A12" s="26">
-        <v>10260539</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F12" s="28">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H12" s="28">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J12" s="28">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K12" s="28">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L12" s="28">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>14</v>
+    <row r="23" ht="15.25" spans="1:2">
+      <c r="A23" s="29">
+        <v>10264549</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:16">
-      <c r="A13" s="29">
-        <v>10296219</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="31">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K13" s="31">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L13" s="31">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>14</v>
+    <row r="24" ht="15.25" spans="1:2">
+      <c r="A24" s="29">
+        <v>10294734</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="14" ht="15.25"/>
-    <row r="15" spans="1:2">
-      <c r="A15" s="32">
-        <v>10264767</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>12</v>
+    <row r="25" ht="15.25" spans="1:2">
+      <c r="A25" s="29">
+        <v>10303306</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="32">
-        <v>10264549</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="32">
-        <v>10294734</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="32">
-        <v>10303306</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="32">
+    <row r="26" ht="15.25" spans="1:2">
+      <c r="A26" s="29">
         <v>10286678</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>33</v>
+      <c r="B26" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2123,13 +2083,13 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Tarek Ibrahim</t>
-  </si>
-  <si>
-    <t>Adham Abdelbadea</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -152,7 +149,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,19 +189,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF313131"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -862,137 +846,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,21 +1045,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1378,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="A18:D18"/>
+      <selection activeCell="A6" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1563,16 +1532,16 @@
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="30" t="s">
+      <c r="M4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1613,16 +1582,16 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="30" t="s">
+      <c r="M5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1663,16 +1632,16 @@
       <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="30" t="s">
+      <c r="M6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1708,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="17"/>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A10" s="18" t="s">
@@ -2003,73 +1972,45 @@
       <c r="P15" s="15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="17" ht="15.25" spans="1:4">
-      <c r="A17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:4">
-      <c r="A18" s="26">
-        <v>10245229</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="28">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D18" s="28">
-        <v>0.75</v>
-      </c>
-    </row>
     <row r="21" ht="15.25"/>
     <row r="22" ht="15.25" spans="1:2">
-      <c r="A22" s="29">
+      <c r="A22" s="24">
         <v>10264767</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:2">
-      <c r="A23" s="29">
+      <c r="A23" s="24">
         <v>10264549</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>33</v>
+      <c r="B23" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:2">
-      <c r="A24" s="29">
+      <c r="A24" s="24">
         <v>10294734</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>34</v>
+      <c r="B24" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:2">
-      <c r="A25" s="29">
+      <c r="A25" s="24">
         <v>10303306</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>35</v>
+      <c r="B25" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:2">
-      <c r="A26" s="29">
+      <c r="A26" s="24">
         <v>10286678</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>36</v>
+      <c r="B26" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Dec 1</t>
-  </si>
-  <si>
-    <t>Tue, Dec 2</t>
-  </si>
-  <si>
-    <t>Wed, Dec 3</t>
-  </si>
-  <si>
-    <t>Thu, Dec 4</t>
-  </si>
-  <si>
-    <t>Fri, Dec 5</t>
-  </si>
-  <si>
-    <t>Sat, Dec 6</t>
-  </si>
-  <si>
-    <t>Sun, Dec 7</t>
+    <t>Mon, Dec 8</t>
+  </si>
+  <si>
+    <t>Tue, Dec 9</t>
+  </si>
+  <si>
+    <t>Wed, Dec 10</t>
+  </si>
+  <si>
+    <t>Thu, Dec 11</t>
+  </si>
+  <si>
+    <t>Fri, Dec 12</t>
+  </si>
+  <si>
+    <t>Sat, Dec 13</t>
+  </si>
+  <si>
+    <t>Sun, Dec 14</t>
   </si>
   <si>
     <t>Start</t>
@@ -80,49 +80,61 @@
     <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Monday, December 1, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, December 2, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, December 3, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, December 4, 2025</t>
-  </si>
-  <si>
-    <t>Friday, December 5, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, December 6, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, December 7, 2025</t>
-  </si>
-  <si>
     <t>Employee ID</t>
   </si>
   <si>
+    <t>Monday, December 8, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, December 9, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, December 10, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, December 11, 2025</t>
+  </si>
+  <si>
+    <t>Friday, December 12, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, December 13, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, December 14, 2025</t>
+  </si>
+  <si>
     <t>Shift Start</t>
   </si>
   <si>
     <t>Shift End</t>
   </si>
   <si>
+    <t>Mohamed Abdallah</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Fathy</t>
+  </si>
+  <si>
+    <t>Soha Omer</t>
+  </si>
+  <si>
     <t>Ahmed Abdelkader</t>
   </si>
   <si>
-    <t>Mohamed Ahmed Fathy</t>
-  </si>
-  <si>
-    <t>Soha Omer</t>
-  </si>
-  <si>
-    <t>Mohamed Abdallah</t>
-  </si>
-  <si>
     <t>Tarek Ibrahim</t>
+  </si>
+  <si>
+    <t>Monday, December 8th 2025</t>
+  </si>
+  <si>
+    <t>Yomna Ahmed</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>06:00 PM</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -149,7 +161,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +201,18 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -584,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -710,6 +734,80 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF313131"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF313131"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -732,6 +830,51 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF313131"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF313131"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -846,137 +989,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,7 +1134,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,7 +1143,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,47 +1158,78 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,7 +1549,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A4:B6"/>
@@ -1383,8 +1557,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.54545454545454" style="1"/>
-    <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.9090909090909" style="1" customWidth="1"/>
     <col min="3" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="22" width="11.6363636363636" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
@@ -1393,7 +1567,7 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1587,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A4" s="11">
         <v>10264767</v>
       </c>
@@ -1532,20 +1706,20 @@
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A5" s="11">
         <v>10294734</v>
       </c>
@@ -1582,20 +1756,20 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="25" t="s">
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A6" s="11">
         <v>10303306</v>
       </c>
@@ -1632,389 +1806,424 @@
       <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="25" t="s">
+      <c r="M6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="15.25"/>
-    <row r="9" s="2" customFormat="1" ht="29.75" customHeight="1" spans="1:17">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="26"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
+        <v>10254383</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:16">
+      <c r="A12" s="23">
+        <v>10260539</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:16">
+      <c r="A13" s="23">
+        <v>10296219</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:16">
+      <c r="A14" s="23">
         <v>10225636</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="B14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="24">
         <v>0.625</v>
       </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
         <v>0.625</v>
       </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
         <v>0.625</v>
       </c>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
         <v>0.625</v>
       </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
         <v>0.625</v>
       </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="15" t="s">
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="22">
-        <v>10260539</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" ht="15.25" spans="1:16">
+      <c r="A15" s="23">
+        <v>10227727</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="22">
-        <v>10296219</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="17" spans="4:7">
+      <c r="D17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="22">
-        <v>10254383</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>14</v>
+    <row r="18" ht="15.25" spans="4:7">
+      <c r="D18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A15" s="22">
-        <v>10227727</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="H15" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="I15" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="J15" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="L15" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+    <row r="19" ht="15.25" spans="1:7">
+      <c r="A19" s="30">
+        <v>10264767</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="31">
+        <v>10252926</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="21" ht="15.25"/>
+    <row r="20" ht="15.25" spans="1:2">
+      <c r="A20" s="30">
+        <v>10264549</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:2">
+      <c r="A21" s="30">
+        <v>10294734</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="22" ht="15.25" spans="1:2">
-      <c r="A22" s="24">
-        <v>10264767</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>12</v>
+      <c r="A22" s="30">
+        <v>10303306</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:2">
-      <c r="A23" s="24">
-        <v>10264549</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>32</v>
+      <c r="A23" s="30">
+        <v>10286678</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="24" ht="15.25" spans="1:2">
-      <c r="A24" s="24">
-        <v>10294734</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:2">
-      <c r="A25" s="24">
-        <v>10303306</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:2">
-      <c r="A26" s="24">
-        <v>10286678</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>35</v>
-      </c>
+    <row r="25" spans="17:17">
+      <c r="Q25" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -2031,8 +2240,11 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Dec 8</t>
-  </si>
-  <si>
-    <t>Tue, Dec 9</t>
-  </si>
-  <si>
-    <t>Wed, Dec 10</t>
-  </si>
-  <si>
-    <t>Thu, Dec 11</t>
-  </si>
-  <si>
-    <t>Fri, Dec 12</t>
-  </si>
-  <si>
-    <t>Sat, Dec 13</t>
-  </si>
-  <si>
-    <t>Sun, Dec 14</t>
+    <t>Mon, Dec 15</t>
+  </si>
+  <si>
+    <t>Tue, Dec 16</t>
+  </si>
+  <si>
+    <t>Wed, Dec 17</t>
+  </si>
+  <si>
+    <t>Thu, Dec 18</t>
+  </si>
+  <si>
+    <t>Fri, Dec 19</t>
+  </si>
+  <si>
+    <t>Sat, Dec 20</t>
+  </si>
+  <si>
+    <t>Sun, Dec 21</t>
   </si>
   <si>
     <t>Start</t>
@@ -80,30 +80,30 @@
     <t>Caroline Girgies</t>
   </si>
   <si>
+    <t>Monday, December 15, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, December 16, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, December 17, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, December 18, 2025</t>
+  </si>
+  <si>
+    <t>Friday, December 19, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, December 20, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, December 21, 2025</t>
+  </si>
+  <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Monday, December 8, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, December 9, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, December 10, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, December 11, 2025</t>
-  </si>
-  <si>
-    <t>Friday, December 12, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, December 13, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, December 14, 2025</t>
-  </si>
-  <si>
     <t>Shift Start</t>
   </si>
   <si>
@@ -122,19 +122,10 @@
     <t>Ahmed Abdelkader</t>
   </si>
   <si>
-    <t>Tarek Ibrahim</t>
-  </si>
-  <si>
-    <t>Monday, December 8th 2025</t>
-  </si>
-  <si>
-    <t>Yomna Ahmed</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>06:00 PM</t>
+    <t>Monday, 15th December 2025</t>
+  </si>
+  <si>
+    <t>Adham Abdelbadea</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -161,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +195,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF313131"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -608,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -740,74 +738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF313131"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF313131"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -824,51 +759,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF313131"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF313131"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -989,137 +879,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,7 +1024,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,7 +1033,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,27 +1048,24 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,46 +1077,45 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,7 +1435,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A4:B6"/>
@@ -1567,7 +1453,7 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1473,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A4" s="11">
         <v>10264767</v>
       </c>
@@ -1719,7 +1605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A5" s="11">
         <v>10294734</v>
       </c>
@@ -1769,7 +1655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A6" s="11">
         <v>10303306</v>
       </c>
@@ -1777,31 +1663,31 @@
         <v>16</v>
       </c>
       <c r="C6" s="14">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D6" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="E6" s="14">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="G6" s="14">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H6" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="I6" s="14">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J6" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="K6" s="14">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L6" s="14">
         <v>0.666666666666667</v>
@@ -1821,90 +1707,90 @@
     </row>
     <row r="8" ht="15.25"/>
     <row r="9" s="2" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="36"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="23">
+    <row r="11" s="2" customFormat="1" spans="1:16">
+      <c r="A11" s="22">
         <v>10254383</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -1940,21 +1826,21 @@
       <c r="L11" s="24">
         <v>0</v>
       </c>
-      <c r="M11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="35" t="s">
+      <c r="M11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="1:16">
-      <c r="A12" s="23">
+    <row r="12" spans="1:16">
+      <c r="A12" s="22">
         <v>10260539</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1990,21 +1876,21 @@
       <c r="L12" s="24">
         <v>0</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="35" t="s">
+      <c r="M12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="1:16">
-      <c r="A13" s="23">
+    <row r="13" spans="1:16">
+      <c r="A13" s="22">
         <v>10296219</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -2040,21 +1926,21 @@
       <c r="L13" s="24">
         <v>0</v>
       </c>
-      <c r="M13" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="35" t="s">
+      <c r="M13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="1:16">
-      <c r="A14" s="23">
+    <row r="14" spans="1:16">
+      <c r="A14" s="22">
         <v>10225636</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -2090,140 +1976,99 @@
       <c r="L14" s="24">
         <v>0</v>
       </c>
-      <c r="M14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="35" t="s">
+      <c r="M14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="15.25" spans="1:16">
-      <c r="A15" s="23">
-        <v>10227727</v>
-      </c>
-      <c r="B15" s="23" t="s">
+    <row r="15" ht="15.25"/>
+    <row r="16" ht="18.75" spans="4:7">
+      <c r="D16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="24">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="15.25" spans="4:7">
+      <c r="D17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:7">
+      <c r="A18" s="30">
+        <v>10264767</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="31">
+        <v>10245229</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="33">
         <v>0.375</v>
       </c>
-      <c r="D15" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="I15" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="L15" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="G18" s="33">
+        <v>0.708333333333333</v>
+      </c>
     </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" ht="15.25" spans="4:7">
-      <c r="D18" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:7">
+    <row r="19" ht="15.25" spans="1:2">
       <c r="A19" s="30">
-        <v>10264767</v>
+        <v>10264549</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="31">
-        <v>10252926</v>
-      </c>
-      <c r="E19" s="32" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
       <c r="A20" s="30">
-        <v>10264549</v>
+        <v>10294734</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:2">
       <c r="A21" s="30">
-        <v>10294734</v>
+        <v>10303306</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:2">
       <c r="A22" s="30">
-        <v>10303306</v>
+        <v>10286678</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="23" ht="15.25" spans="1:2">
-      <c r="A23" s="30">
-        <v>10286678</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="17:17">
-      <c r="Q25" s="37"/>
+    <row r="24" spans="17:17">
+      <c r="Q24" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="19">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -2240,11 +2085,9 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -120,12 +120,6 @@
   </si>
   <si>
     <t>Ahmed Abdelkader</t>
-  </si>
-  <si>
-    <t>Monday, 15th December 2025</t>
-  </si>
-  <si>
-    <t>Adham Abdelbadea</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -152,7 +146,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,114 +189,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF313131"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -731,17 +706,6 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -879,137 +843,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,38 +1041,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1592,16 +1529,16 @@
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="34" t="s">
+      <c r="M4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1642,16 +1579,16 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="34" t="s">
+      <c r="M5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1692,16 +1629,16 @@
       <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="34" t="s">
+      <c r="M6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1737,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="17"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A10" s="18" t="s">
@@ -1789,286 +1726,267 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:16">
+    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A11" s="22">
         <v>10254383</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>0.625</v>
       </c>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
         <v>0.625</v>
       </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
         <v>0.625</v>
       </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
         <v>0.625</v>
       </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
         <v>0.625</v>
       </c>
-      <c r="L11" s="24">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="23" t="s">
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" ht="15.25" spans="1:16">
       <c r="A12" s="22">
         <v>10260539</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>0.625</v>
       </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
         <v>0.625</v>
       </c>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
         <v>0.625</v>
       </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
         <v>0.625</v>
       </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
         <v>0.625</v>
       </c>
-      <c r="L12" s="24">
-        <v>0</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="23" t="s">
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" ht="15.25" spans="1:16">
       <c r="A13" s="22">
         <v>10296219</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>0.625</v>
       </c>
-      <c r="D13" s="24">
-        <v>0</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
         <v>0.625</v>
       </c>
-      <c r="F13" s="24">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24">
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
         <v>0.625</v>
       </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
         <v>0.625</v>
       </c>
-      <c r="J13" s="24">
-        <v>0</v>
-      </c>
-      <c r="K13" s="24">
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
         <v>0.625</v>
       </c>
-      <c r="L13" s="24">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="23" t="s">
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" ht="15.25" spans="1:16">
       <c r="A14" s="22">
         <v>10225636</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>0.625</v>
       </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23">
         <v>0.625</v>
       </c>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
         <v>0.625</v>
       </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
         <v>0.625</v>
       </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
         <v>0.625</v>
       </c>
-      <c r="L14" s="24">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="23" t="s">
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="15.25"/>
-    <row r="16" ht="18.75" spans="4:7">
-      <c r="D16" s="25" t="s">
+    <row r="16" spans="4:7">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="24">
+        <v>10264767</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="24">
+        <v>10264549</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="15.25" spans="4:7">
-      <c r="D17" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:7">
-      <c r="A18" s="30">
-        <v>10264767</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="31">
-        <v>10245229</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="G18" s="33">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="30">
-        <v>10264549</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="30">
+      <c r="A20" s="24">
         <v>10294734</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>34</v>
+      <c r="B20" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:2">
-      <c r="A21" s="30">
+      <c r="A21" s="24">
         <v>10303306</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>35</v>
+      <c r="B21" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:2">
-      <c r="A22" s="30">
+      <c r="A22" s="24">
         <v>10286678</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>36</v>
+      <c r="B22" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="17:17">
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -2085,7 +2003,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="D16:G16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -132,6 +132,96 @@
   </si>
   <si>
     <t>Salma Samir</t>
+  </si>
+  <si>
+    <t>Monday, December 22, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, December 23, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, December 24, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, December 25, 2025</t>
+  </si>
+  <si>
+    <t>Friday, December 26, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, December 27, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, December 28, 2025</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Pick up point</t>
+  </si>
+  <si>
+    <t>Route Num</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Faisl &amp; Haram</t>
+  </si>
+  <si>
+    <t>المريوطية</t>
+  </si>
+  <si>
+    <t>New Cairo</t>
+  </si>
+  <si>
+    <t>Mohandsein</t>
+  </si>
+  <si>
+    <t>ميدان الدقي</t>
+  </si>
+  <si>
+    <t>Hadayek AL Ahram</t>
+  </si>
+  <si>
+    <t>Hossam Hussein</t>
+  </si>
+  <si>
+    <t>15th May - Helwan - Kornesh Maadi</t>
+  </si>
+  <si>
+    <t>مستشفي السلام - كورنيش</t>
+  </si>
+  <si>
+    <t>Ahmed Ayman</t>
   </si>
 </sst>
 </file>
@@ -146,7 +236,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +275,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBFE0F6"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -333,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,7 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA6C9EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0A53A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,76 +951,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,10 +1023,10 @@
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,10 +1035,10 @@
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,10 +1047,10 @@
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,10 +1059,10 @@
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,11 +1071,17 @@
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,8 +1155,44 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,10 +1516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:B6"/>
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1390,7 +1534,7 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1529,16 +1673,16 @@
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1579,16 +1723,16 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="25" t="s">
+      <c r="M5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1612,33 +1756,33 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G6" s="14">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H6" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="I6" s="14">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="J6" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="K6" s="14">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="25" t="s">
+      <c r="M6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1674,7 +1818,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="17"/>
-      <c r="Q9" s="26"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A10" s="18" t="s">
@@ -1876,7 +2020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="1:16">
+    <row r="14" spans="1:16">
       <c r="A14" s="22">
         <v>10225636</v>
       </c>
@@ -1926,67 +2070,546 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="15" spans="4:7">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24">
+        <v>10264767</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="4:7">
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="24">
+        <v>10264549</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="15.25" spans="1:2">
       <c r="A18" s="24">
-        <v>10264767</v>
+        <v>10294734</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="15.25" spans="1:2">
       <c r="A19" s="24">
-        <v>10264549</v>
+        <v>10303306</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
       <c r="A20" s="24">
-        <v>10294734</v>
+        <v>10286678</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="21" ht="15.25" spans="1:2">
-      <c r="A21" s="24">
-        <v>10303306</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>33</v>
-      </c>
+    <row r="21" ht="15.25"/>
+    <row r="22" ht="15.25" spans="1:25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="38"/>
     </row>
-    <row r="22" ht="15.25" spans="1:2">
-      <c r="A22" s="24">
-        <v>10286678</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>34</v>
+    <row r="23" ht="15.25" spans="1:25">
+      <c r="A23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="34" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="24" spans="17:17">
-      <c r="Q24" s="26"/>
+    <row r="24" spans="1:25">
+      <c r="A24" s="28">
+        <v>10254383</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="29">
+        <v>1</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="M24" s="36">
+        <v>0</v>
+      </c>
+      <c r="N24" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="O24" s="36">
+        <v>0</v>
+      </c>
+      <c r="P24" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>0</v>
+      </c>
+      <c r="R24" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="S24" s="36">
+        <v>0</v>
+      </c>
+      <c r="T24" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="U24" s="36">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y24" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="28">
+        <v>10260539</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="29">
+        <v>2</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N25" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="O25" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P25" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q25" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="R25" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S25" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="T25" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="U25" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="V25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="X25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y25" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="28">
+        <v>10296219</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M26" s="36">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N26" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="O26" s="36">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P26" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="Q26" s="36">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R26" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="S26" s="36">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T26" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="U26" s="36">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="28">
+        <v>10331391</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M27" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N27" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="O27" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P27" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q27" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="R27" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S27" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="T27" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="U27" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="V27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y27" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="28">
+        <v>10225636</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="29">
+        <v>14</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M28" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N28" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="O28" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P28" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="R28" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S28" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="T28" s="36">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="U28" s="36">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="V28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y28" s="29" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -2003,6 +2626,13 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mon, Dec 15</t>
-  </si>
-  <si>
-    <t>Tue, Dec 16</t>
-  </si>
-  <si>
-    <t>Wed, Dec 17</t>
-  </si>
-  <si>
-    <t>Thu, Dec 18</t>
-  </si>
-  <si>
-    <t>Fri, Dec 19</t>
-  </si>
-  <si>
-    <t>Sat, Dec 20</t>
-  </si>
-  <si>
-    <t>Sun, Dec 21</t>
+    <t>Mon, Dec 22</t>
+  </si>
+  <si>
+    <t>Tue, Dec 23</t>
+  </si>
+  <si>
+    <t>Wed, Dec 24</t>
+  </si>
+  <si>
+    <t>Thu, Dec 25</t>
+  </si>
+  <si>
+    <t>Fri, Dec 26</t>
+  </si>
+  <si>
+    <t>Sat, Dec 27</t>
+  </si>
+  <si>
+    <t>Sun, Dec 28</t>
   </si>
   <si>
     <t>Start</t>
@@ -155,73 +155,7 @@
     <t>Sunday, December 28, 2025</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Pick up point</t>
-  </si>
-  <si>
-    <t>Route Num</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>FTE</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Faisl &amp; Haram</t>
-  </si>
-  <si>
-    <t>المريوطية</t>
-  </si>
-  <si>
-    <t>New Cairo</t>
-  </si>
-  <si>
-    <t>Mohandsein</t>
-  </si>
-  <si>
-    <t>ميدان الدقي</t>
-  </si>
-  <si>
-    <t>Hadayek AL Ahram</t>
-  </si>
-  <si>
     <t>Hossam Hussein</t>
-  </si>
-  <si>
-    <t>15th May - Helwan - Kornesh Maadi</t>
-  </si>
-  <si>
-    <t>مستشفي السلام - كورنيش</t>
-  </si>
-  <si>
-    <t>Ahmed Ayman</t>
   </si>
 </sst>
 </file>
@@ -236,7 +170,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,12 +209,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFBFE0F6"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -429,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,19 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA6C9EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0A53A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,70 +867,76 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,10 +945,10 @@
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,10 +957,10 @@
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,10 +969,10 @@
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,10 +981,10 @@
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,17 +993,11 @@
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,7 +1012,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,7 +1021,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,79 +1036,46 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1516,10 +1399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection activeCell="A6" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1534,7 +1417,7 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="21.25" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1437,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A4" s="11">
         <v>10264767</v>
       </c>
@@ -1673,20 +1556,20 @@
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="M4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A5" s="11">
         <v>10294734</v>
       </c>
@@ -1723,20 +1606,20 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="M5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A6" s="11">
         <v>10303306</v>
       </c>
@@ -1744,13 +1627,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="14">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="D6" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="E6" s="14">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F6" s="14">
         <v>0.666666666666667</v>
@@ -1773,16 +1656,16 @@
       <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="31" t="s">
+      <c r="M6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1818,7 +1701,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="17"/>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A10" s="18" t="s">
@@ -1874,49 +1757,49 @@
       <c r="A11" s="22">
         <v>10254383</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="15" t="s">
+      <c r="C11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1924,49 +1807,49 @@
       <c r="A12" s="22">
         <v>10260539</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="15" t="s">
+      <c r="C12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1974,113 +1857,113 @@
       <c r="A13" s="22">
         <v>10296219</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="C13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:16">
       <c r="A14" s="22">
         <v>10225636</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+      <c r="C14" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="4:7">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24">
+    <row r="16" ht="15.25" spans="1:7">
+      <c r="A16" s="25">
         <v>10264767</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D16"/>
@@ -2088,523 +1971,369 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="24">
+    <row r="17" ht="15.25" spans="1:2">
+      <c r="A17" s="25">
         <v>10264549</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="24">
+      <c r="A18" s="25">
         <v>10294734</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="24">
+      <c r="A19" s="25">
         <v>10303306</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="24">
+      <c r="A20" s="25">
         <v>10286678</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" ht="15.25"/>
-    <row r="22" ht="15.25" spans="1:25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="32" t="s">
+    <row r="22" ht="15.25" spans="1:17">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32" t="s">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32" t="s">
+      <c r="L22" s="17"/>
+      <c r="M22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32" t="s">
+      <c r="N22" s="17"/>
+      <c r="O22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="38"/>
-    </row>
-    <row r="23" ht="15.25" spans="1:25">
-      <c r="A23" s="26" t="s">
+      <c r="P22" s="17"/>
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" ht="15.25" spans="1:16">
+      <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:16">
+      <c r="A24" s="22">
+        <v>10254383</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H24" s="24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J24" s="24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L24" s="24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:16">
+      <c r="A25" s="22">
+        <v>10260539</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H25" s="24">
+        <v>0</v>
+      </c>
+      <c r="I25" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J25" s="24">
+        <v>0</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L25" s="24">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:16">
+      <c r="A26" s="22">
+        <v>10296219</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="I26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="L26" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:16">
+      <c r="A27" s="22">
+        <v>10331391</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="V23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="W23" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y23" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="28">
-        <v>10254383</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="29">
-        <v>1</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="36">
-        <v>0.625</v>
-      </c>
-      <c r="M24" s="36">
-        <v>0</v>
-      </c>
-      <c r="N24" s="36">
-        <v>0.625</v>
-      </c>
-      <c r="O24" s="36">
-        <v>0</v>
-      </c>
-      <c r="P24" s="36">
-        <v>0.625</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>0</v>
-      </c>
-      <c r="R24" s="36">
-        <v>0.625</v>
-      </c>
-      <c r="S24" s="36">
-        <v>0</v>
-      </c>
-      <c r="T24" s="36">
-        <v>0.625</v>
-      </c>
-      <c r="U24" s="36">
-        <v>0</v>
-      </c>
-      <c r="V24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="X24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y24" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="28">
-        <v>10260539</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="29">
-        <v>2</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="36">
+      <c r="C27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L27" s="24">
+        <v>0</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:16">
+      <c r="A28" s="22">
+        <v>10225636</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="24">
         <v>0.583333333333333</v>
       </c>
-      <c r="M25" s="36">
+      <c r="D28" s="24">
         <v>0.958333333333333</v>
       </c>
-      <c r="N25" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="O25" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P25" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="Q25" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="R25" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="S25" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="T25" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="U25" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="V25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="X25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y25" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="28">
-        <v>10296219</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="36">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M26" s="36">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N26" s="36">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O26" s="36">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P26" s="36">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="Q26" s="36">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R26" s="36">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="S26" s="36">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T26" s="36">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="U26" s="36">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="X26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y26" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="28">
-        <v>10331391</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M27" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N27" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="O27" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P27" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="Q27" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="R27" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="S27" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="T27" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="U27" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="V27" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W27" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="X27" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y27" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="28">
-        <v>10225636</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="29">
-        <v>14</v>
-      </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M28" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N28" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="O28" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P28" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="Q28" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="R28" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="S28" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="T28" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="U28" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="V28" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W28" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="X28" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y28" s="29" t="s">
+      <c r="E28" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="I28" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J28" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="L28" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2626,13 +2355,13 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -80,25 +80,25 @@
     <t>Caroline Girgies</t>
   </si>
   <si>
-    <t>Monday, December 15, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, December 16, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, December 17, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, December 18, 2025</t>
-  </si>
-  <si>
-    <t>Friday, December 19, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, December 20, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, December 21, 2025</t>
+    <t>Monday, December 22, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, December 23, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, December 24, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, December 25, 2025</t>
+  </si>
+  <si>
+    <t>Friday, December 26, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, December 27, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, December 28, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -116,12 +116,12 @@
     <t>Mohamed Ahmed Fathy</t>
   </si>
   <si>
-    <t>Soha Omer</t>
-  </si>
-  <si>
     <t>Ahmed Abdelkader</t>
   </si>
   <si>
+    <t>Tarek Ibrahim</t>
+  </si>
+  <si>
     <t>Fady Nagy</t>
   </si>
   <si>
@@ -132,30 +132,6 @@
   </si>
   <si>
     <t>Salma Samir</t>
-  </si>
-  <si>
-    <t>Monday, December 22, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, December 23, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, December 24, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, December 25, 2025</t>
-  </si>
-  <si>
-    <t>Friday, December 26, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, December 27, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, December 28, 2025</t>
-  </si>
-  <si>
-    <t>Hossam Hussein</t>
   </si>
 </sst>
 </file>
@@ -1045,37 +1021,37 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:B6"/>
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1556,16 +1532,16 @@
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="26" t="s">
+      <c r="M4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1606,16 +1582,16 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="26" t="s">
+      <c r="M5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1656,16 +1632,16 @@
       <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="26" t="s">
+      <c r="M6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1757,49 +1733,49 @@
       <c r="A11" s="22">
         <v>10254383</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>0.625</v>
       </c>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
         <v>0.625</v>
       </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
         <v>0.625</v>
       </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
         <v>0.625</v>
       </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
         <v>0.625</v>
       </c>
-      <c r="L11" s="24">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="23" t="s">
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1807,151 +1783,143 @@
       <c r="A12" s="22">
         <v>10260539</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>0.625</v>
       </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
         <v>0.625</v>
       </c>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
         <v>0.625</v>
       </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
         <v>0.625</v>
       </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
         <v>0.625</v>
       </c>
-      <c r="L12" s="24">
-        <v>0</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="23" t="s">
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:16">
       <c r="A13" s="22">
-        <v>10296219</v>
-      </c>
-      <c r="B13" s="23" t="s">
+        <v>10225636</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>0.625</v>
       </c>
-      <c r="D13" s="24">
-        <v>0</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
         <v>0.625</v>
       </c>
-      <c r="F13" s="24">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24">
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
         <v>0.625</v>
       </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
         <v>0.625</v>
       </c>
-      <c r="J13" s="24">
-        <v>0</v>
-      </c>
-      <c r="K13" s="24">
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
         <v>0.625</v>
       </c>
-      <c r="L13" s="24">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="23" t="s">
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:16">
       <c r="A14" s="22">
-        <v>10225636</v>
-      </c>
-      <c r="B14" s="23" t="s">
+        <v>10227727</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="L14" s="24">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="C14" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" ht="15.25" spans="4:7">
       <c r="D15"/>
@@ -1960,10 +1928,10 @@
       <c r="G15"/>
     </row>
     <row r="16" ht="15.25" spans="1:7">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>10264767</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D16"/>
@@ -1972,373 +1940,39 @@
       <c r="G16"/>
     </row>
     <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>10264549</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>10294734</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>10303306</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>10286678</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25"/>
-    <row r="22" ht="15.25" spans="1:17">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" ht="15.25" spans="1:16">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:16">
-      <c r="A24" s="22">
-        <v>10254383</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="F24" s="24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="H24" s="24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="J24" s="24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="L24" s="24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:16">
-      <c r="A25" s="22">
-        <v>10260539</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="F25" s="24">
-        <v>0</v>
-      </c>
-      <c r="G25" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="H25" s="24">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="J25" s="24">
-        <v>0</v>
-      </c>
-      <c r="K25" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="L25" s="24">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:16">
-      <c r="A26" s="22">
-        <v>10296219</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="F26" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="G26" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="I26" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="J26" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="K26" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="L26" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:16">
-      <c r="A27" s="22">
-        <v>10331391</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0</v>
-      </c>
-      <c r="K27" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="L27" s="24">
-        <v>0</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:16">
-      <c r="A28" s="22">
-        <v>10225636</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E28" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="F28" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="G28" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="I28" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="J28" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="K28" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="L28" s="24">
-        <v>0.125</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="18">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -2355,13 +1989,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>

--- a/Accounts-Schedules/IT_Team.xlsx
+++ b/Accounts-Schedules/IT_Team.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="51">
   <si>
     <t>Location : New Cairo</t>
   </si>
@@ -116,10 +116,16 @@
     <t>Mohamed Ahmed Fathy</t>
   </si>
   <si>
+    <t>Soha Omer</t>
+  </si>
+  <si>
+    <t>Hossam Hussein</t>
+  </si>
+  <si>
     <t>Ahmed Abdelkader</t>
   </si>
   <si>
-    <t>Tarek Ibrahim</t>
+    <t>Ahmed Abdelfattah</t>
   </si>
   <si>
     <t>Fady Nagy</t>
@@ -132,6 +138,48 @@
   </si>
   <si>
     <t>Salma Samir</t>
+  </si>
+  <si>
+    <t>Monday, December 29, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, December 30, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, December 31, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, January 1, 2026</t>
+  </si>
+  <si>
+    <t>Friday, January 2, 2026</t>
+  </si>
+  <si>
+    <t>Saturday, January 3, 2026</t>
+  </si>
+  <si>
+    <t>Sunday, January 4, 2026</t>
+  </si>
+  <si>
+    <t>Mon, Dec 29</t>
+  </si>
+  <si>
+    <t>Tue, Dec 30</t>
+  </si>
+  <si>
+    <t>Wed, Dec 31</t>
+  </si>
+  <si>
+    <t>Thu, Jan 1</t>
+  </si>
+  <si>
+    <t>Fri, Jan 2</t>
+  </si>
+  <si>
+    <t>Sat, Jan 3</t>
+  </si>
+  <si>
+    <t>Sun, Jan 4</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,6 +1069,39 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,21 +1122,58 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,7 +1493,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
@@ -1393,7 +1511,7 @@
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21.25" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="23.5" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1531,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A4" s="11">
         <v>10264767</v>
       </c>
@@ -1532,20 +1650,20 @@
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="M4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A5" s="11">
         <v>10294734</v>
       </c>
@@ -1582,20 +1700,20 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="M5" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A6" s="11">
         <v>10303306</v>
       </c>
@@ -1632,139 +1750,189 @@
       <c r="L6" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25"/>
+      <c r="M6" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25"/>
+    <row r="8" ht="15.25" spans="1:16">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
     <row r="9" s="2" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="27"/>
+      <c r="A9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>26</v>
+      <c r="A10" s="22">
+        <v>10254383</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A11" s="22">
-        <v>10254383</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0</v>
+        <v>10260539</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.958333333333333</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>14</v>
@@ -1781,40 +1949,40 @@
     </row>
     <row r="12" ht="15.25" spans="1:16">
       <c r="A12" s="22">
-        <v>10260539</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0</v>
+        <v>10296219</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0.125</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>14</v>
@@ -1831,40 +1999,40 @@
     </row>
     <row r="13" ht="15.25" spans="1:16">
       <c r="A13" s="22">
-        <v>10225636</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
+        <v>10331391</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0.958333333333333</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>14</v>
@@ -1881,98 +2049,744 @@
     </row>
     <row r="14" ht="15.25" spans="1:16">
       <c r="A14" s="22">
-        <v>10227727</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="D14" s="23">
+        <v>10225636</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:16">
+      <c r="A15" s="22">
+        <v>10256496</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D15" s="25">
         <v>0.75</v>
       </c>
-      <c r="E14" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="K14" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" ht="15.25" spans="4:7">
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:7">
-      <c r="A16" s="24">
-        <v>10264767</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="E15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" ht="15.25" spans="1:2">
-      <c r="A17" s="24">
+    <row r="17" ht="15.25" spans="4:7">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" ht="15.25" spans="1:7">
+      <c r="A18" s="26">
+        <v>10264767</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" ht="15.25" spans="1:2">
+      <c r="A19" s="26">
         <v>10264549</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B19" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:2">
+      <c r="A20" s="26">
+        <v>10294734</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:2">
+      <c r="A21" s="26">
+        <v>10303306</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:2">
+      <c r="A22" s="26">
+        <v>10286678</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:17">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="51"/>
+    </row>
+    <row r="26" ht="15.25" spans="1:16">
+      <c r="A26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:16">
+      <c r="A27" s="33">
+        <v>10254383</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L27" s="24">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:16">
+      <c r="A28" s="33">
+        <v>10260539</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L28" s="24">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:16">
+      <c r="A29" s="33">
+        <v>10296219</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="I29" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J29" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="L29" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:16">
+      <c r="A30" s="33">
+        <v>10331391</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L30" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:16">
+      <c r="A31" s="33">
+        <v>10225636</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:2">
-      <c r="A18" s="24">
+      <c r="C31" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L31" s="24">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25"/>
+    <row r="33" ht="15.25" spans="1:16">
+      <c r="A33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" ht="15.25" spans="1:16">
+      <c r="A34" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="39"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:16">
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:16">
+      <c r="A36" s="42">
+        <v>10264767</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="45">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="45">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="45">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:16">
+      <c r="A37" s="42">
         <v>10294734</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:2">
-      <c r="A19" s="24">
+      <c r="B37" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="45">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0</v>
+      </c>
+      <c r="G37" s="45">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H37" s="45">
+        <v>0</v>
+      </c>
+      <c r="I37" s="45">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J37" s="45">
+        <v>0</v>
+      </c>
+      <c r="K37" s="45">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L37" s="45">
+        <v>0</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:16">
+      <c r="A38" s="42">
         <v>10303306</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:2">
-      <c r="A20" s="24">
-        <v>10286678</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>34</v>
+      <c r="B38" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E38" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F38" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G38" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H38" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I38" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J38" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K38" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L38" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M38" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="49" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="36">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:D2"/>
@@ -1982,15 +2796,33 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:P33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
